--- a/voorbeelden/OMS-Light-profiel.xlsx
+++ b/voorbeelden/OMS-Light-profiel.xlsx
@@ -8,21 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\geriw\Documents\GitHub\waterkwaliteitapi\voorbeelden\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDED36C4-C12A-4E73-BE78-583E712FB373}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD8B1524-FDAF-457B-8996-52F6B1A1E147}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24360" yWindow="615" windowWidth="31110" windowHeight="14580" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="24360" yWindow="615" windowWidth="31110" windowHeight="14580" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="References" sheetId="1" r:id="rId1"/>
-    <sheet name="ObservationCollection" sheetId="4" r:id="rId2"/>
-    <sheet name="Observations" sheetId="3" r:id="rId3"/>
+    <sheet name="Sample" sheetId="5" r:id="rId2"/>
+    <sheet name="ObservationCollection" sheetId="4" r:id="rId3"/>
+    <sheet name="Observations" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="191">
   <si>
     <t>ObservationId</t>
   </si>
@@ -81,21 +82,12 @@
     <t>Quantity</t>
   </si>
   <si>
-    <t>https://www.aquo.nl/index.php/Id-0eafa483-2875-4c94-890d-66258a6b4d88?title=Id-0eafa483-2875-4c94-890d-66258a6b4d88&amp;pfRunQueryFormName=Zoek+parameter&amp;parameter+query%5BFreetexttitle%5D=&amp;parameter+query%5BCode%5D=&amp;parameter+query%5BCAS%5D=&amp;parameter+query%5BGroep%5D=grootheid&amp;parameter+query%5BId%5D=&amp;parameter+query%5BVervallen%5D%5Bis_list%5D=1&amp;pf_free_text=&amp;wpRunQuery=Zoekopdracht+uitvoeren</t>
-  </si>
-  <si>
     <t>LOC</t>
   </si>
   <si>
     <t>Location</t>
   </si>
   <si>
-    <t>NL12-VEEN</t>
-  </si>
-  <si>
-    <t>Veen ter hoogste van …</t>
-  </si>
-  <si>
     <t>https://narwl.rws.nl/82348798234</t>
   </si>
   <si>
@@ -120,18 +112,12 @@
     <t>Geslacht</t>
   </si>
   <si>
-    <t>MAN</t>
-  </si>
-  <si>
     <t>Manlijk</t>
   </si>
   <si>
     <t>https://www.aquo.nl/index.php/Id-0110b3d2-35f3-4963-9fa5-1feeb829da84</t>
   </si>
   <si>
-    <t>VROUW</t>
-  </si>
-  <si>
     <t>Vrouwelijk</t>
   </si>
   <si>
@@ -159,9 +145,6 @@
     <t>Taxon</t>
   </si>
   <si>
-    <t>Cyprinus carpio 'Lederkarper'</t>
-  </si>
-  <si>
     <t>https://taxainfo.nl/548387345</t>
   </si>
   <si>
@@ -186,9 +169,6 @@
     <t>LVR</t>
   </si>
   <si>
-    <t>Liver</t>
-  </si>
-  <si>
     <t>LF</t>
   </si>
   <si>
@@ -222,12 +202,6 @@
     <t>PROC</t>
   </si>
   <si>
-    <t>VISUAL</t>
-  </si>
-  <si>
-    <t>Visual determination</t>
-  </si>
-  <si>
     <t>SMPSTRAT</t>
   </si>
   <si>
@@ -258,27 +232,12 @@
     <t>Stowa</t>
   </si>
   <si>
-    <t>PRJ</t>
-  </si>
-  <si>
-    <t>Project</t>
-  </si>
-  <si>
     <t>Organisatie</t>
   </si>
   <si>
     <t>RWS</t>
   </si>
   <si>
-    <t>PRJ001</t>
-  </si>
-  <si>
-    <t>Project één</t>
-  </si>
-  <si>
-    <t>=</t>
-  </si>
-  <si>
     <t>M21b</t>
   </si>
   <si>
@@ -288,9 +247,6 @@
     <t>NL80</t>
   </si>
   <si>
-    <t>MTH</t>
-  </si>
-  <si>
     <t>Methode</t>
   </si>
   <si>
@@ -300,18 +256,12 @@
     <t>Utermöhl</t>
   </si>
   <si>
-    <t>Metadata</t>
-  </si>
-  <si>
     <t>Related</t>
   </si>
   <si>
     <t>Related role</t>
   </si>
   <si>
-    <t>observed</t>
-  </si>
-  <si>
     <t>0.5</t>
   </si>
   <si>
@@ -342,9 +292,6 @@
     <t>/SMPSTRAT/DIATM_S002</t>
   </si>
   <si>
-    <t>/PROC/VISUAL</t>
-  </si>
-  <si>
     <t>Type</t>
   </si>
   <si>
@@ -369,9 +316,6 @@
     <t>Key</t>
   </si>
   <si>
-    <t>/SYM/=</t>
-  </si>
-  <si>
     <t>Aantal fractie</t>
   </si>
   <si>
@@ -387,9 +331,6 @@
     <t>Aantal</t>
   </si>
   <si>
-    <t>/LOC/DIEMZDK/RWS</t>
-  </si>
-  <si>
     <t>ObservationCollectionId</t>
   </si>
   <si>
@@ -408,9 +349,6 @@
     <t>vocab</t>
   </si>
   <si>
-    <t>/LV/CEL</t>
-  </si>
-  <si>
     <t>/PUR/MT</t>
   </si>
   <si>
@@ -423,6 +361,9 @@
     <t>/ORG/EAS</t>
   </si>
   <si>
+    <t>/COMPARTMENT/OW</t>
+  </si>
+  <si>
     <t>8e29-988117da1fb4-3</t>
   </si>
   <si>
@@ -432,12 +373,6 @@
     <t>Deployment</t>
   </si>
   <si>
-    <t>/ORG/AQN</t>
-  </si>
-  <si>
-    <t>/COMPARTMENT/OW,/REF/2005300197,/SET/1</t>
-  </si>
-  <si>
     <t>/LIMIT/&lt;</t>
   </si>
   <si>
@@ -468,20 +403,206 @@
     <t>/LOC_RWS/DIEMZDK</t>
   </si>
   <si>
-    <t>Gemeten bij meetobject DIEMDZDK van Rijkswaterstaat. De WGS84 meetcoordinaten zijn vastgelegd. Opdracht door AQN, gemeten door EAS. Parameter was Amphora [2]. De gevolgde procedure was volgens DIATMS_002. Monstername en meettijd zijn vastlegd. Via metadata is gespecificeerd dat compartiment oppervlaktewater was. Daarnaast zijn referentienummer en meetset vastgelegd.</t>
-  </si>
-  <si>
     <t>8e29-988117da1fb4-5</t>
   </si>
   <si>
     <t>8e29-988117da1fb4-6</t>
+  </si>
+  <si>
+    <t>/LF/CEL</t>
+  </si>
+  <si>
+    <t>Amphora [2]</t>
+  </si>
+  <si>
+    <t>/CMP/OW</t>
+  </si>
+  <si>
+    <t>/SMPSTRAT/RAAI</t>
+  </si>
+  <si>
+    <t>/KRW/M21b</t>
+  </si>
+  <si>
+    <t>/NMS/NL80</t>
+  </si>
+  <si>
+    <t>True</t>
+  </si>
+  <si>
+    <t>IsLookup</t>
+  </si>
+  <si>
+    <t>/SET</t>
+  </si>
+  <si>
+    <t>SET</t>
+  </si>
+  <si>
+    <t>False</t>
+  </si>
+  <si>
+    <t>Measurement set number</t>
+  </si>
+  <si>
+    <t>Collection reference</t>
+  </si>
+  <si>
+    <t>&lt;</t>
+  </si>
+  <si>
+    <t>/ORG/LVR</t>
+  </si>
+  <si>
+    <t>PRJ_RWS</t>
+  </si>
+  <si>
+    <t>MTH_RWS</t>
+  </si>
+  <si>
+    <t>/BHV</t>
+  </si>
+  <si>
+    <t>/QUA</t>
+  </si>
+  <si>
+    <t>/PRJ_MTH/UTM</t>
+  </si>
+  <si>
+    <t>/PAR/CHLFa</t>
+  </si>
+  <si>
+    <t>/LS/JU</t>
+  </si>
+  <si>
+    <t>/LS/AD</t>
+  </si>
+  <si>
+    <t>/GE/M</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>/GE/V</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>DIEMZDK</t>
+  </si>
+  <si>
+    <t>Diemerzeedijk</t>
+  </si>
+  <si>
+    <t>SampleId</t>
+  </si>
+  <si>
+    <t>SamplingLocation</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>SamplingProcedure</t>
+  </si>
+  <si>
+    <t>Sampler</t>
+  </si>
+  <si>
+    <t>Observations</t>
+  </si>
+  <si>
+    <t>PreparationProcedure</t>
+  </si>
+  <si>
+    <t>RelatedSampling</t>
+  </si>
+  <si>
+    <t>8e29-988117da-1</t>
+  </si>
+  <si>
+    <t>/PROC/DIATM_A002</t>
+  </si>
+  <si>
+    <t>DIATM_A002</t>
+  </si>
+  <si>
+    <t>SOP A-202 vs2 + SOP A-208 vs2</t>
+  </si>
+  <si>
+    <t>BM05.02 rapport pilot 2002-2004 dd 31-05-2005</t>
+  </si>
+  <si>
+    <t>DIATM_S002</t>
+  </si>
+  <si>
+    <t>/PROC/DIATM_S002</t>
+  </si>
+  <si>
+    <t>measured</t>
+  </si>
+  <si>
+    <t>Compartiment</t>
+  </si>
+  <si>
+    <t>/SET:2899192</t>
+  </si>
+  <si>
+    <t>Meetsetnummer</t>
+  </si>
+  <si>
+    <t>/REF:</t>
+  </si>
+  <si>
+    <t>/REF</t>
+  </si>
+  <si>
+    <t>REF</t>
+  </si>
+  <si>
+    <t>/PRJ_RWS/MWTL_DIAT</t>
+  </si>
+  <si>
+    <t>MWTL_Diatomeëen</t>
+  </si>
+  <si>
+    <t>Projecten</t>
+  </si>
+  <si>
+    <t>MWTL_DIATM</t>
+  </si>
+  <si>
+    <t>Collectiereferentie</t>
+  </si>
+  <si>
+    <t>8e29-988117da1fb4-7</t>
+  </si>
+  <si>
+    <t>Cholorofyl-A</t>
+  </si>
+  <si>
+    <t>Kleiner dan</t>
+  </si>
+  <si>
+    <t>Lever</t>
+  </si>
+  <si>
+    <t>Gemeten bij meetobject DIEMDZDK van Rijkswaterstaat. De WGS84 meetcoordinaten zijn vastgelegd. Kader: project MWTL_DIATM, gemeten door EAS. Parameter was Amphora [2]. De gevolgde procedure was volgens DIATMS_002. Monstername en meettijd zijn vastlegd. Daarnaast zijn referentienummer en meetset vastgelegd.</t>
+  </si>
+  <si>
+    <t>/RWS_PRJ/MWTL_DIATM</t>
+  </si>
+  <si>
+    <t>https://www.aquo.nl/index.php/Id-0eafa483-2875-4c94-890d-66258a6b4d88</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -535,6 +656,14 @@
       <family val="2"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -554,6 +683,11 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Roboto"/>
     </font>
   </fonts>
   <fills count="2">
@@ -580,10 +714,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -612,13 +747,10 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -628,7 +760,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -637,11 +769,19 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -945,404 +1085,657 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:I24"/>
+  <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.140625" customWidth="1"/>
-    <col min="7" max="7" width="255.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="31.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" customWidth="1"/>
+    <col min="4" max="4" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.140625" customWidth="1"/>
+    <col min="6" max="6" width="52.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.140625" customWidth="1"/>
+    <col min="8" max="8" width="73.28515625" customWidth="1"/>
+    <col min="9" max="9" width="31.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
-        <v>114</v>
+        <v>96</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>80</v>
-      </c>
       <c r="G1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>110</v>
+        <v>92</v>
       </c>
       <c r="B2" t="s">
         <v>12</v>
       </c>
       <c r="C2" t="s">
+        <v>134</v>
+      </c>
+      <c r="D2" t="s">
         <v>13</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>14</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="H2" s="9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>117</v>
+        <v>98</v>
       </c>
       <c r="B3" t="s">
         <v>17</v>
       </c>
       <c r="C3" t="s">
+        <v>134</v>
+      </c>
+      <c r="D3" t="s">
         <v>18</v>
       </c>
-      <c r="D3" t="s">
-        <v>118</v>
-      </c>
       <c r="E3" t="s">
-        <v>116</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+      <c r="F3" t="s">
+        <v>97</v>
+      </c>
+      <c r="H3" s="23" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>117</v>
+        <v>94</v>
       </c>
       <c r="B4" t="s">
         <v>17</v>
       </c>
       <c r="C4" t="s">
+        <v>134</v>
+      </c>
+      <c r="D4" t="s">
         <v>18</v>
       </c>
-      <c r="D4" t="s">
-        <v>119</v>
-      </c>
       <c r="E4" t="s">
-        <v>120</v>
-      </c>
-      <c r="G4" s="9"/>
-    </row>
-    <row r="5" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+      <c r="F4" t="s">
+        <v>101</v>
+      </c>
+      <c r="H4" s="9"/>
+    </row>
+    <row r="5" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="B5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" t="s">
+        <v>134</v>
+      </c>
+      <c r="D5" t="s">
         <v>20</v>
       </c>
-      <c r="C5" t="s">
+      <c r="E5" t="s">
+        <v>155</v>
+      </c>
+      <c r="F5" t="s">
+        <v>156</v>
+      </c>
+      <c r="H5" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D5" t="s">
+      <c r="I5" t="s">
         <v>22</v>
       </c>
-      <c r="E5" t="s">
+      <c r="J5" t="s">
         <v>23</v>
       </c>
-      <c r="G5" s="9" t="s">
+    </row>
+    <row r="6" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>148</v>
+      </c>
+      <c r="B6" t="s">
         <v>24</v>
       </c>
-      <c r="H5" t="s">
+      <c r="C6" t="s">
+        <v>134</v>
+      </c>
+      <c r="D6" t="s">
         <v>25</v>
       </c>
-      <c r="I5" t="s">
+      <c r="E6" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
+      <c r="F6" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>151</v>
+      </c>
+      <c r="B7" t="s">
         <v>27</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C7" t="s">
+        <v>134</v>
+      </c>
+      <c r="D7" t="s">
         <v>28</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E7" t="s">
+        <v>152</v>
+      </c>
+      <c r="F7" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
+      <c r="H7" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="C7" t="s">
+    </row>
+    <row r="8" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>153</v>
+      </c>
+      <c r="B8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" t="s">
+        <v>134</v>
+      </c>
+      <c r="D8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" t="s">
+        <v>154</v>
+      </c>
+      <c r="F8" t="s">
         <v>31</v>
       </c>
-      <c r="D7" t="s">
+      <c r="H8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>149</v>
+      </c>
+      <c r="B9" t="s">
         <v>32</v>
       </c>
-      <c r="E7" t="s">
+      <c r="C9" t="s">
+        <v>134</v>
+      </c>
+      <c r="D9" t="s">
         <v>33</v>
       </c>
-      <c r="G7" s="9" t="s">
+      <c r="E9" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
-        <v>30</v>
-      </c>
-      <c r="C8" t="s">
-        <v>31</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="F9" t="s">
         <v>35</v>
       </c>
-      <c r="E8" t="s">
+    </row>
+    <row r="10" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>150</v>
+      </c>
+      <c r="B10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" t="s">
+        <v>134</v>
+      </c>
+      <c r="D10" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" t="s">
         <v>36</v>
       </c>
-      <c r="G8" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
+      <c r="F10" t="s">
         <v>37</v>
       </c>
-      <c r="C9" t="s">
+    </row>
+    <row r="11" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>95</v>
+      </c>
+      <c r="B11" t="s">
         <v>38</v>
       </c>
-      <c r="D9" t="s">
+      <c r="C11" t="s">
+        <v>134</v>
+      </c>
+      <c r="D11" t="s">
         <v>39</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E11" t="s">
+        <v>129</v>
+      </c>
+      <c r="F11" t="s">
+        <v>129</v>
+      </c>
+      <c r="H11" s="9" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>37</v>
-      </c>
-      <c r="C10" t="s">
-        <v>38</v>
-      </c>
-      <c r="D10" t="s">
+    <row r="12" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>130</v>
+      </c>
+      <c r="B12" t="s">
         <v>41</v>
       </c>
-      <c r="E10" t="s">
+      <c r="C12" t="s">
+        <v>134</v>
+      </c>
+      <c r="D12" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
+      <c r="E12" t="s">
         <v>43</v>
       </c>
-      <c r="C11" t="s">
+      <c r="F12" t="s">
         <v>44</v>
       </c>
-      <c r="D11" t="s">
+    </row>
+    <row r="13" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>142</v>
+      </c>
+      <c r="B13" t="s">
         <v>45</v>
       </c>
-      <c r="G11" s="9" t="s">
+      <c r="C13" t="s">
+        <v>134</v>
+      </c>
+      <c r="D13" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
+      <c r="E13" t="s">
         <v>47</v>
       </c>
-      <c r="C12" t="s">
+      <c r="F13" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>128</v>
+      </c>
+      <c r="B14" t="s">
         <v>48</v>
       </c>
-      <c r="D12" t="s">
+      <c r="C14" t="s">
+        <v>134</v>
+      </c>
+      <c r="D14" t="s">
         <v>49</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E14" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
+      <c r="F14" t="s">
         <v>51</v>
       </c>
-      <c r="C13" t="s">
+    </row>
+    <row r="15" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>116</v>
+      </c>
+      <c r="B15" t="s">
         <v>52</v>
       </c>
-      <c r="D13" t="s">
+      <c r="C15" t="s">
+        <v>134</v>
+      </c>
+      <c r="D15" t="s">
         <v>53</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E15" t="s">
+        <v>141</v>
+      </c>
+      <c r="F15" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>145</v>
+      </c>
+      <c r="B16" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>114</v>
-      </c>
-      <c r="B14" t="s">
+      <c r="C16" t="s">
+        <v>134</v>
+      </c>
+      <c r="D16" t="s">
         <v>55</v>
       </c>
-      <c r="C14" t="s">
+    </row>
+    <row r="17" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>146</v>
+      </c>
+      <c r="B17" t="s">
         <v>56</v>
       </c>
-      <c r="D14" t="s">
+      <c r="C17" t="s">
+        <v>134</v>
+      </c>
+      <c r="D17" t="s">
         <v>57</v>
       </c>
-      <c r="E14" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>115</v>
-      </c>
-      <c r="B15" t="s">
+    </row>
+    <row r="18" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>131</v>
+      </c>
+      <c r="B18" t="s">
         <v>59</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C18" t="s">
+        <v>134</v>
+      </c>
+      <c r="D18" t="s">
         <v>60</v>
       </c>
-      <c r="D15" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
+      <c r="E18" t="s">
         <v>61</v>
       </c>
-      <c r="C16" t="s">
+      <c r="F18" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="17" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
+    <row r="19" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>132</v>
+      </c>
+      <c r="B19" t="s">
         <v>63</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C19" t="s">
+        <v>134</v>
+      </c>
+      <c r="D19" t="s">
         <v>64</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
-        <v>65</v>
-      </c>
-      <c r="C18" t="s">
-        <v>1</v>
-      </c>
-      <c r="D18" t="s">
-        <v>66</v>
-      </c>
-      <c r="E18" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="19" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
-        <v>68</v>
-      </c>
-      <c r="C19" t="s">
-        <v>69</v>
-      </c>
-      <c r="D19" t="s">
-        <v>70</v>
       </c>
       <c r="E19" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="20" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F19" s="10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>133</v>
+      </c>
       <c r="B20" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="C20" t="s">
+        <v>134</v>
+      </c>
+      <c r="D20" t="s">
+        <v>66</v>
+      </c>
+      <c r="E20" t="s">
         <v>73</v>
       </c>
-      <c r="D20" t="s">
-        <v>85</v>
-      </c>
-      <c r="E20" s="10" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="21" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
+        <v>67</v>
+      </c>
+      <c r="C21" t="s">
+        <v>134</v>
+      </c>
+      <c r="D21" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>179</v>
+      </c>
+      <c r="B22" t="s">
+        <v>143</v>
+      </c>
+      <c r="C22" t="s">
+        <v>134</v>
+      </c>
+      <c r="D22" t="s">
+        <v>181</v>
+      </c>
+      <c r="E22" t="s">
+        <v>182</v>
+      </c>
+      <c r="F22" t="s">
+        <v>180</v>
+      </c>
+      <c r="G22" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>147</v>
+      </c>
+      <c r="B23" t="s">
+        <v>144</v>
+      </c>
+      <c r="C23" t="s">
+        <v>134</v>
+      </c>
+      <c r="D23" t="s">
         <v>74</v>
       </c>
-      <c r="C21" t="s">
+      <c r="E23" t="s">
         <v>75</v>
       </c>
-      <c r="D21" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="22" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
+      <c r="F23" t="s">
         <v>76</v>
       </c>
-      <c r="C22" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
-        <v>78</v>
-      </c>
-      <c r="C23" t="s">
-        <v>79</v>
-      </c>
-      <c r="D23" t="s">
-        <v>82</v>
-      </c>
-      <c r="E23" t="s">
-        <v>83</v>
-      </c>
-      <c r="F23" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>136</v>
+      </c>
       <c r="B24" t="s">
-        <v>88</v>
+        <v>137</v>
       </c>
       <c r="C24" t="s">
-        <v>89</v>
+        <v>138</v>
       </c>
       <c r="D24" t="s">
-        <v>90</v>
-      </c>
-      <c r="E24" t="s">
-        <v>91</v>
+        <v>139</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>177</v>
+      </c>
+      <c r="B25" t="s">
+        <v>178</v>
+      </c>
+      <c r="C25" t="s">
+        <v>138</v>
+      </c>
+      <c r="D25" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>166</v>
+      </c>
+      <c r="B26" t="s">
+        <v>58</v>
+      </c>
+      <c r="C26" t="s">
+        <v>134</v>
+      </c>
+      <c r="E26" t="s">
+        <v>167</v>
+      </c>
+      <c r="F26" s="21" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>171</v>
+      </c>
+      <c r="B27" t="s">
+        <v>58</v>
+      </c>
+      <c r="C27" t="s">
+        <v>134</v>
+      </c>
+      <c r="E27" t="s">
+        <v>170</v>
+      </c>
+      <c r="F27" s="21" t="s">
+        <v>169</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="H3" r:id="rId1" xr:uid="{4C5D2A58-BAD6-4882-B6AB-E4DFF86DDADD}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B782347-B805-4EA9-85D0-BA3F59351EBB}">
-  <dimension ref="A1:L3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9D6BD85-94FA-44D7-9DD0-0A664F8BBB70}">
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="24.140625" customWidth="1"/>
+    <col min="2" max="2" width="24.42578125" customWidth="1"/>
+    <col min="3" max="3" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="I1" s="11" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" s="14" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="22">
+        <v>2005300197</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="G2" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="H2" s="14" t="s">
+        <v>165</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B782347-B805-4EA9-85D0-BA3F59351EBB}">
+  <dimension ref="A1:K3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1350,34 +1743,33 @@
     <col min="1" max="1" width="23" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25.28515625" style="8" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="26.7109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.28515625" style="8" customWidth="1"/>
     <col min="5" max="5" width="9.85546875" style="8" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17.5703125" style="8" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="22.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16.5703125" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="24.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="42.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="30.140625" customWidth="1"/>
+    <col min="11" max="11" width="30.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
-        <v>122</v>
+        <v>102</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>98</v>
+        <v>81</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>99</v>
+        <v>82</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>135</v>
+        <v>115</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>131</v>
+        <v>110</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>1</v>
@@ -1386,57 +1778,51 @@
         <v>2</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>102</v>
+        <v>85</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="K1" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="L1" s="13" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" s="15" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
-        <v>123</v>
-      </c>
-      <c r="B2" s="16" t="s">
-        <v>147</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>100</v>
-      </c>
-      <c r="D2" s="16" t="s">
-        <v>136</v>
-      </c>
-      <c r="E2" s="16" t="s">
-        <v>132</v>
-      </c>
-      <c r="F2" s="15" t="s">
-        <v>113</v>
-      </c>
-      <c r="G2" s="15" t="s">
-        <v>105</v>
-      </c>
-      <c r="H2" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="I2" s="17" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" s="14" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="J2" s="17" t="s">
-        <v>104</v>
-      </c>
-      <c r="K2" s="15" t="s">
-        <v>137</v>
-      </c>
-      <c r="L2" s="18" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B2" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>189</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="G2" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="H2" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="I2" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="J2" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="K2" s="17" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
@@ -1449,16 +1835,16 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:K9"/>
+  <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K9" sqref="K9"/>
+      <selection pane="bottomLeft" activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1477,162 +1863,218 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>122</v>
+      <c r="A1" s="11" t="s">
+        <v>102</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>101</v>
+        <v>84</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>125</v>
+        <v>105</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>3</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>139</v>
+        <v>117</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>126</v>
+        <v>106</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="K1" s="12" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" s="14" customFormat="1" ht="111" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="C2" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="K1" s="13" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" s="15" customFormat="1" ht="111" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
-        <v>123</v>
-      </c>
-      <c r="B2" s="16" t="s">
-        <v>124</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>111</v>
-      </c>
-      <c r="D2" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="E2" s="19" t="s">
-        <v>96</v>
-      </c>
-      <c r="F2" s="20" t="s">
-        <v>110</v>
-      </c>
-      <c r="I2" s="16" t="s">
-        <v>97</v>
-      </c>
-      <c r="J2" s="15" t="s">
-        <v>95</v>
-      </c>
-      <c r="K2" s="21" t="s">
-        <v>141</v>
+      <c r="D2" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="E2" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="F2" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="I2" s="15"/>
+      <c r="K2" s="20" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>123</v>
+      <c r="A3" s="14" t="s">
+        <v>103</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>133</v>
+        <v>113</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" t="s">
-        <v>127</v>
+        <v>107</v>
       </c>
       <c r="E3" s="5"/>
       <c r="G3" t="s">
         <v>128</v>
       </c>
-      <c r="K3" s="14" t="s">
-        <v>143</v>
+      <c r="K3" s="13" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="D4" t="s">
+        <v>107</v>
+      </c>
+      <c r="G4" t="s">
+        <v>108</v>
+      </c>
+      <c r="K4" s="13" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="D5" t="s">
+        <v>107</v>
+      </c>
+      <c r="G5" t="s">
+        <v>109</v>
+      </c>
+      <c r="K5" s="13" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="D6" t="s">
+        <v>107</v>
+      </c>
+      <c r="G6" t="s">
+        <v>116</v>
+      </c>
+      <c r="K6" s="13" t="s">
         <v>123</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="D4" t="s">
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="G4" t="s">
-        <v>129</v>
-      </c>
-      <c r="K4" s="14" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>123</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="D7" t="s">
+        <v>107</v>
+      </c>
+      <c r="G7" t="s">
+        <v>112</v>
+      </c>
+      <c r="K7" s="13" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="G5" t="s">
-        <v>130</v>
-      </c>
-      <c r="K5" s="14" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>123</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="D6" t="s">
-        <v>127</v>
-      </c>
-      <c r="G6" t="s">
-        <v>138</v>
-      </c>
-      <c r="K6" s="14" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" s="15" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="15" t="s">
-        <v>123</v>
-      </c>
-      <c r="B9" s="16" t="s">
-        <v>97</v>
-      </c>
-      <c r="C9" s="16" t="s">
-        <v>112</v>
-      </c>
-      <c r="D9" s="17" t="s">
-        <v>109</v>
-      </c>
-      <c r="E9" s="19">
+      <c r="D8" t="s">
+        <v>107</v>
+      </c>
+      <c r="G8" t="s">
+        <v>174</v>
+      </c>
+      <c r="K8" s="13" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="D9" t="s">
+        <v>107</v>
+      </c>
+      <c r="G9" t="s">
+        <v>176</v>
+      </c>
+      <c r="K9" s="13" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B10" s="4"/>
+      <c r="K10" s="13"/>
+    </row>
+    <row r="12" spans="1:11" s="14" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="E12" s="18">
         <v>2</v>
       </c>
-      <c r="F9" s="20"/>
-      <c r="K9" s="21" t="s">
-        <v>142</v>
+      <c r="F12" s="19"/>
+      <c r="I12" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="J12" s="14" t="s">
+        <v>172</v>
+      </c>
+      <c r="K12" s="20" t="s">
+        <v>120</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/voorbeelden/OMS-Light-profiel.xlsx
+++ b/voorbeelden/OMS-Light-profiel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\geriw\Documents\GitHub\waterkwaliteitapi\voorbeelden\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD8B1524-FDAF-457B-8996-52F6B1A1E147}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7DD9A18-1161-4A7F-8BA9-169AF27C7C55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="24360" yWindow="615" windowWidth="31110" windowHeight="14580" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="190">
   <si>
     <t>ObservationId</t>
   </si>
@@ -256,12 +256,6 @@
     <t>Utermöhl</t>
   </si>
   <si>
-    <t>Related</t>
-  </si>
-  <si>
-    <t>Related role</t>
-  </si>
-  <si>
     <t>0.5</t>
   </si>
   <si>
@@ -520,9 +514,6 @@
     <t>RelatedSampling</t>
   </si>
   <si>
-    <t>8e29-988117da-1</t>
-  </si>
-  <si>
     <t>/PROC/DIATM_A002</t>
   </si>
   <si>
@@ -541,9 +532,6 @@
     <t>/PROC/DIATM_S002</t>
   </si>
   <si>
-    <t>measured</t>
-  </si>
-  <si>
     <t>Compartiment</t>
   </si>
   <si>
@@ -596,6 +584,15 @@
   </si>
   <si>
     <t>https://www.aquo.nl/index.php/Id-0eafa483-2875-4c94-890d-66258a6b4d88</t>
+  </si>
+  <si>
+    <t>8e29-988117da1fb4-8</t>
+  </si>
+  <si>
+    <t>8e29-988117da1fb4-9</t>
+  </si>
+  <si>
+    <t>8e29-988117da-1,8e29-988117da1fb4-3,8e29-988117da1fb4-4,8e29-988117da1fb4-5,8e29-988117da1fb4-6,8e29-988117da1fb4-7,8e29-988117da1fb4-8,8e29-988117da1fb4-9</t>
   </si>
 </sst>
 </file>
@@ -1107,13 +1104,13 @@
   <sheetData>
     <row r="1" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>6</v>
@@ -1139,13 +1136,13 @@
     </row>
     <row r="2" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B2" t="s">
         <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D2" t="s">
         <v>13</v>
@@ -1162,66 +1159,66 @@
     </row>
     <row r="3" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B3" t="s">
         <v>17</v>
       </c>
       <c r="C3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D3" t="s">
         <v>18</v>
       </c>
       <c r="E3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="H3" s="23" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B4" t="s">
         <v>17</v>
       </c>
       <c r="C4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D4" t="s">
         <v>18</v>
       </c>
       <c r="E4" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F4" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H4" s="9"/>
     </row>
     <row r="5" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B5" t="s">
         <v>19</v>
       </c>
       <c r="C5" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D5" t="s">
         <v>20</v>
       </c>
       <c r="E5" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F5" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="H5" s="9" t="s">
         <v>21</v>
@@ -1235,13 +1232,13 @@
     </row>
     <row r="6" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B6" t="s">
         <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D6" t="s">
         <v>25</v>
@@ -1250,24 +1247,24 @@
         <v>26</v>
       </c>
       <c r="F6" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B7" t="s">
         <v>27</v>
       </c>
       <c r="C7" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D7" t="s">
         <v>28</v>
       </c>
       <c r="E7" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F7" t="s">
         <v>29</v>
@@ -1278,19 +1275,19 @@
     </row>
     <row r="8" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B8" t="s">
         <v>27</v>
       </c>
       <c r="C8" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D8" t="s">
         <v>28</v>
       </c>
       <c r="E8" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="F8" t="s">
         <v>31</v>
@@ -1301,13 +1298,13 @@
     </row>
     <row r="9" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B9" t="s">
         <v>32</v>
       </c>
       <c r="C9" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D9" t="s">
         <v>33</v>
@@ -1321,13 +1318,13 @@
     </row>
     <row r="10" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B10" t="s">
         <v>32</v>
       </c>
       <c r="C10" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D10" t="s">
         <v>33</v>
@@ -1341,22 +1338,22 @@
     </row>
     <row r="11" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B11" t="s">
         <v>38</v>
       </c>
       <c r="C11" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D11" t="s">
         <v>39</v>
       </c>
       <c r="E11" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F11" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="H11" s="9" t="s">
         <v>40</v>
@@ -1364,13 +1361,13 @@
     </row>
     <row r="12" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B12" t="s">
         <v>41</v>
       </c>
       <c r="C12" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D12" t="s">
         <v>42</v>
@@ -1384,13 +1381,13 @@
     </row>
     <row r="13" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B13" t="s">
         <v>45</v>
       </c>
       <c r="C13" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D13" t="s">
         <v>46</v>
@@ -1399,18 +1396,18 @@
         <v>47</v>
       </c>
       <c r="F13" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B14" t="s">
         <v>48</v>
       </c>
       <c r="C14" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D14" t="s">
         <v>49</v>
@@ -1424,33 +1421,33 @@
     </row>
     <row r="15" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B15" t="s">
         <v>52</v>
       </c>
       <c r="C15" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D15" t="s">
         <v>53</v>
       </c>
       <c r="E15" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F15" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B16" t="s">
         <v>54</v>
       </c>
       <c r="C16" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D16" t="s">
         <v>55</v>
@@ -1458,13 +1455,13 @@
     </row>
     <row r="17" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B17" t="s">
         <v>56</v>
       </c>
       <c r="C17" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D17" t="s">
         <v>57</v>
@@ -1472,13 +1469,13 @@
     </row>
     <row r="18" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B18" t="s">
         <v>59</v>
       </c>
       <c r="C18" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D18" t="s">
         <v>60</v>
@@ -1492,13 +1489,13 @@
     </row>
     <row r="19" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B19" t="s">
         <v>63</v>
       </c>
       <c r="C19" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D19" t="s">
         <v>64</v>
@@ -1512,13 +1509,13 @@
     </row>
     <row r="20" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B20" t="s">
         <v>65</v>
       </c>
       <c r="C20" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D20" t="s">
         <v>66</v>
@@ -1532,7 +1529,7 @@
         <v>67</v>
       </c>
       <c r="C21" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D21" t="s">
         <v>68</v>
@@ -1540,22 +1537,22 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B22" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C22" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D22" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="E22" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="F22" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="G22" t="s">
         <v>70</v>
@@ -1563,13 +1560,13 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B23" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C23" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D23" t="s">
         <v>74</v>
@@ -1583,64 +1580,64 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
+        <v>134</v>
+      </c>
+      <c r="B24" t="s">
+        <v>135</v>
+      </c>
+      <c r="C24" t="s">
         <v>136</v>
       </c>
-      <c r="B24" t="s">
+      <c r="D24" t="s">
         <v>137</v>
-      </c>
-      <c r="C24" t="s">
-        <v>138</v>
-      </c>
-      <c r="D24" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="B25" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="C25" t="s">
+        <v>136</v>
+      </c>
+      <c r="D25" t="s">
         <v>138</v>
-      </c>
-      <c r="D25" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B26" t="s">
         <v>58</v>
       </c>
       <c r="C26" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E26" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F26" s="21" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B27" t="s">
         <v>58</v>
       </c>
       <c r="C27" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E27" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="F27" s="21" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
   </sheetData>
@@ -1657,7 +1654,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1669,37 +1666,37 @@
     <col min="5" max="5" width="18.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="20.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="154.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="C1" s="11" t="s">
         <v>157</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>158</v>
-      </c>
-      <c r="C1" s="11" t="s">
-        <v>159</v>
       </c>
       <c r="D1" s="11" t="s">
         <v>25</v>
       </c>
       <c r="E1" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="H1" s="11" t="s">
         <v>160</v>
       </c>
-      <c r="F1" s="11" t="s">
-        <v>163</v>
-      </c>
-      <c r="G1" s="11" t="s">
-        <v>161</v>
-      </c>
-      <c r="H1" s="11" t="s">
+      <c r="I1" s="11" t="s">
         <v>162</v>
-      </c>
-      <c r="I1" s="11" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="2" spans="1:9" s="14" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1707,22 +1704,22 @@
         <v>2005300197</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E2" s="14" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="G2" s="14" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="H2" s="14" t="s">
-        <v>165</v>
+        <v>189</v>
       </c>
     </row>
   </sheetData>
@@ -1735,7 +1732,7 @@
   <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1754,19 +1751,19 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>25</v>
@@ -1778,48 +1775,48 @@
         <v>2</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="K1" s="12" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="14" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="E2" s="15" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F2" s="14" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G2" s="14" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H2" s="14" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="I2" s="16" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="J2" s="16" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="K2" s="17" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -1840,11 +1837,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:K12"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D21" sqref="D21"/>
+      <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1857,221 +1854,214 @@
     <col min="6" max="6" width="12.7109375" style="6" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="32.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="29.42578125" customWidth="1"/>
+    <col min="9" max="9" width="29.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>3</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="I1" s="12" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" s="14" customFormat="1" ht="111" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="E2" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="F2" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="I2" s="20" t="s">
         <v>117</v>
       </c>
-      <c r="H1" s="1" t="s">
+    </row>
+    <row r="3" spans="1:9" s="14" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="E3" s="18">
+        <v>2</v>
+      </c>
+      <c r="F3" s="19"/>
+      <c r="I3" s="20" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C4" s="4"/>
+      <c r="D4" t="s">
+        <v>105</v>
+      </c>
+      <c r="E4" s="5"/>
+      <c r="G4" t="s">
+        <v>126</v>
+      </c>
+      <c r="I4" s="13" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="D5" t="s">
+        <v>105</v>
+      </c>
+      <c r="G5" t="s">
         <v>106</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="K1" s="12" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" s="14" customFormat="1" ht="111" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="B2" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="C2" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="D2" s="16" t="s">
-        <v>90</v>
-      </c>
-      <c r="E2" s="18" t="s">
-        <v>79</v>
-      </c>
-      <c r="F2" s="19" t="s">
-        <v>92</v>
-      </c>
-      <c r="I2" s="15"/>
-      <c r="K2" s="20" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="C3" s="4"/>
-      <c r="D3" t="s">
+      <c r="I5" s="13" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="D6" t="s">
+        <v>105</v>
+      </c>
+      <c r="G6" t="s">
         <v>107</v>
       </c>
-      <c r="E3" s="5"/>
-      <c r="G3" t="s">
-        <v>128</v>
-      </c>
-      <c r="K3" s="13" t="s">
+      <c r="I6" s="13" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="D7" t="s">
+        <v>105</v>
+      </c>
+      <c r="G7" t="s">
+        <v>114</v>
+      </c>
+      <c r="I7" s="13" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="D4" t="s">
-        <v>107</v>
-      </c>
-      <c r="G4" t="s">
-        <v>108</v>
-      </c>
-      <c r="K4" s="13" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="D5" t="s">
-        <v>107</v>
-      </c>
-      <c r="G5" t="s">
-        <v>109</v>
-      </c>
-      <c r="K5" s="13" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="D6" t="s">
-        <v>107</v>
-      </c>
-      <c r="G6" t="s">
-        <v>116</v>
-      </c>
-      <c r="K6" s="13" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="D7" t="s">
-        <v>107</v>
-      </c>
-      <c r="G7" t="s">
-        <v>112</v>
-      </c>
-      <c r="K7" s="13" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>127</v>
+        <v>180</v>
       </c>
       <c r="D8" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="G8" t="s">
-        <v>174</v>
-      </c>
-      <c r="K8" s="13" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+        <v>110</v>
+      </c>
+      <c r="I8" s="13" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="D9" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="G9" t="s">
-        <v>176</v>
-      </c>
-      <c r="K9" s="13" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B10" s="4"/>
-      <c r="K10" s="13"/>
-    </row>
-    <row r="12" spans="1:11" s="14" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="B12" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="C12" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="D12" s="16" t="s">
-        <v>91</v>
-      </c>
-      <c r="E12" s="18">
-        <v>2</v>
-      </c>
-      <c r="F12" s="19"/>
-      <c r="I12" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="J12" s="14" t="s">
+        <v>170</v>
+      </c>
+      <c r="I9" s="13" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="D10" t="s">
+        <v>105</v>
+      </c>
+      <c r="G10" t="s">
         <v>172</v>
       </c>
-      <c r="K12" s="20" t="s">
-        <v>120</v>
-      </c>
+      <c r="I10" s="13" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B11" s="4"/>
+      <c r="I11" s="13"/>
+    </row>
+    <row r="13" spans="1:9" s="14" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="15"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="19"/>
+      <c r="I13" s="20"/>
     </row>
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>

--- a/voorbeelden/OMS-Light-profiel.xlsx
+++ b/voorbeelden/OMS-Light-profiel.xlsx
@@ -8,22 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\geriw\Documents\GitHub\waterkwaliteitapi\voorbeelden\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7DD9A18-1161-4A7F-8BA9-169AF27C7C55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B23163A-17B0-4719-88AB-8975B7AD17B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="24360" yWindow="615" windowWidth="31110" windowHeight="14580" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="References" sheetId="1" r:id="rId1"/>
-    <sheet name="Sample" sheetId="5" r:id="rId2"/>
-    <sheet name="ObservationCollection" sheetId="4" r:id="rId3"/>
-    <sheet name="Observations" sheetId="3" r:id="rId4"/>
+    <sheet name="Sampling" sheetId="5" r:id="rId2"/>
+    <sheet name="Observations" sheetId="3" r:id="rId3"/>
+    <sheet name="Zoeken" sheetId="6" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="185">
   <si>
     <t>ObservationId</t>
   </si>
@@ -34,9 +34,6 @@
     <t>SamplingStrategy</t>
   </si>
   <si>
-    <t>MeasureUnit</t>
-  </si>
-  <si>
     <t>ResultTime</t>
   </si>
   <si>
@@ -256,6 +253,9 @@
     <t>Utermöhl</t>
   </si>
   <si>
+    <t>observed</t>
+  </si>
+  <si>
     <t>0.5</t>
   </si>
   <si>
@@ -325,12 +325,6 @@
     <t>Aantal</t>
   </si>
   <si>
-    <t>ObservationCollectionId</t>
-  </si>
-  <si>
-    <t>8e29-988117da</t>
-  </si>
-  <si>
     <t>8e29-988117da1fb4-1</t>
   </si>
   <si>
@@ -340,24 +334,12 @@
     <t>Truth</t>
   </si>
   <si>
-    <t>vocab</t>
-  </si>
-  <si>
-    <t>/PUR/MT</t>
-  </si>
-  <si>
-    <t>/MEASPAK/DT.AB</t>
-  </si>
-  <si>
     <t>Observer</t>
   </si>
   <si>
     <t>/ORG/EAS</t>
   </si>
   <si>
-    <t>/COMPARTMENT/OW</t>
-  </si>
-  <si>
     <t>8e29-988117da1fb4-3</t>
   </si>
   <si>
@@ -370,39 +352,9 @@
     <t>/LIMIT/&lt;</t>
   </si>
   <si>
-    <t>Vocab (JSON Pointer)</t>
-  </si>
-  <si>
-    <t>(Uitleg)</t>
-  </si>
-  <si>
-    <t>Deze waarde is berekend, niet gemeten. Deze komt overeen met hoe kwantiteitsmetingen werken. Deze observatie refereerd met rol 'observed' naar de werkelijke geobserveerde waarde.</t>
-  </si>
-  <si>
-    <t>Dit is de geobserveerde waarde. Door formules wordt de gemeten waarde berekend.</t>
-  </si>
-  <si>
-    <t>Cellen zijn gemeten.</t>
-  </si>
-  <si>
-    <t>Meetpakket diatomee abundantie.</t>
-  </si>
-  <si>
-    <t>Limitsymbool kleiner dan.</t>
-  </si>
-  <si>
-    <t>Meetdoel was monitoring</t>
-  </si>
-  <si>
     <t>/LOC_RWS/DIEMZDK</t>
   </si>
   <si>
-    <t>8e29-988117da1fb4-5</t>
-  </si>
-  <si>
-    <t>8e29-988117da1fb4-6</t>
-  </si>
-  <si>
     <t>/LF/CEL</t>
   </si>
   <si>
@@ -532,18 +484,6 @@
     <t>/PROC/DIATM_S002</t>
   </si>
   <si>
-    <t>Compartiment</t>
-  </si>
-  <si>
-    <t>/SET:2899192</t>
-  </si>
-  <si>
-    <t>Meetsetnummer</t>
-  </si>
-  <si>
-    <t>/REF:</t>
-  </si>
-  <si>
     <t>/REF</t>
   </si>
   <si>
@@ -562,12 +502,6 @@
     <t>MWTL_DIATM</t>
   </si>
   <si>
-    <t>Collectiereferentie</t>
-  </si>
-  <si>
-    <t>8e29-988117da1fb4-7</t>
-  </si>
-  <si>
     <t>Cholorofyl-A</t>
   </si>
   <si>
@@ -577,22 +511,159 @@
     <t>Lever</t>
   </si>
   <si>
-    <t>Gemeten bij meetobject DIEMDZDK van Rijkswaterstaat. De WGS84 meetcoordinaten zijn vastgelegd. Kader: project MWTL_DIATM, gemeten door EAS. Parameter was Amphora [2]. De gevolgde procedure was volgens DIATMS_002. Monstername en meettijd zijn vastlegd. Daarnaast zijn referentienummer en meetset vastgelegd.</t>
-  </si>
-  <si>
     <t>/RWS_PRJ/MWTL_DIATM</t>
   </si>
   <si>
     <t>https://www.aquo.nl/index.php/Id-0eafa483-2875-4c94-890d-66258a6b4d88</t>
   </si>
   <si>
-    <t>8e29-988117da1fb4-8</t>
-  </si>
-  <si>
-    <t>8e29-988117da1fb4-9</t>
-  </si>
-  <si>
-    <t>8e29-988117da-1,8e29-988117da1fb4-3,8e29-988117da1fb4-4,8e29-988117da1fb4-5,8e29-988117da1fb4-6,8e29-988117da1fb4-7,8e29-988117da1fb4-8,8e29-988117da1fb4-9</t>
+    <t>complex</t>
+  </si>
+  <si>
+    <t>Complex</t>
+  </si>
+  <si>
+    <t>RelatedObservation</t>
+  </si>
+  <si>
+    <t>RelationRole</t>
+  </si>
+  <si>
+    <t>context</t>
+  </si>
+  <si>
+    <t>/observations?$filter=parameter in ('Amphora [1]', 'Amphora [2]', 'Amphora [3]')</t>
+  </si>
+  <si>
+    <t>/observations?$filter=taxongroup/code eq 'DIATM'</t>
+  </si>
+  <si>
+    <t>/observations?$filter=tree('Cyprinus')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/observations?$filter=ufoi/code eq 'DIEMZDK' and resulttime gt '2005-01-01' and resulttime lt '2019-01-01' and parameter eq 'Amphora [2]' </t>
+  </si>
+  <si>
+    <t>/observations?$filter=type in ('count', 'measure' , 'complex' , 'truth', 'timeseries',  'grid', 'coverage' )</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/observations?$filter=type eq 'count' or type eq 'measure' or type eq 'complex' or type eq 'truth' or type eq 'timeseries' or type eq 'grid' or type eq 'coverage' </t>
+  </si>
+  <si>
+    <t>/observations?$orderby=resulttime desc&amp;$top=1000&amp;$skip=20000&amp;$count=true</t>
+  </si>
+  <si>
+    <t>/observations?$filter=contains(ufoi/code, 'IEMZD') and year(resulttime) gt 2005 and year(resulttime) lt and parameter eq 'Amphora [2]'  and measurevalue gt 200.5</t>
+  </si>
+  <si>
+    <t>/observations?$filter=geo.distance(ufoi/geography, geometry'POINT(800 1000) lt 50 and parameter eq 'Amphora [2]'&amp;coord=RD</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>MAGNIFICATION:100x</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>SHAPE:SPHERIC</t>
+    </r>
+  </si>
+  <si>
+    <t>Limitsymbol</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">LIFEFORM:CEL,       PURPOSE:MT,   </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>MEASUREMENTPAK:DT.AB</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">,  COMPARTMENT:OW,  </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>MEASUREMENTSET:289919, COLLECTIONREF:2005-288123</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>TAXONTYPE:DIATM</t>
+    </r>
+  </si>
+  <si>
+    <t>/observations?$filter=/ref/LV/code not eq null</t>
+  </si>
+  <si>
+    <t>/observations?$filter=/ref/LV/code eq 'CEL' and /ref/COMPARTMENT/code eq 'OW'</t>
+  </si>
+  <si>
+    <t>/observations?$select=ufoi/code,resulttime,parameter,UOM/symbol,measurevalue,/ref/COMPARTMENT/code</t>
+  </si>
+  <si>
+    <t>8e29-988117da1fb4-1, 8e29-988117da1fb4-2, 8e29-988117da1fb4-3, 8e29-988117da1fb4-4</t>
   </si>
 </sst>
 </file>
@@ -669,13 +740,6 @@
     <font>
       <i/>
       <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -685,6 +749,13 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Roboto"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="5" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -715,7 +786,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -725,12 +796,6 @@
     </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -744,10 +809,9 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -757,24 +821,28 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="3" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1084,8 +1152,8 @@
   </sheetPr>
   <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1103,35 +1171,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="9" t="s">
         <v>94</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1139,22 +1207,22 @@
         <v>90</v>
       </c>
       <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
+        <v>116</v>
+      </c>
+      <c r="D2" t="s">
         <v>12</v>
       </c>
-      <c r="C2" t="s">
-        <v>132</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>13</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="F2" t="s">
+      <c r="H2" s="7" t="s">
         <v>15</v>
-      </c>
-      <c r="H2" s="9" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1162,13 +1230,13 @@
         <v>96</v>
       </c>
       <c r="B3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" t="s">
+        <v>116</v>
+      </c>
+      <c r="D3" t="s">
         <v>17</v>
-      </c>
-      <c r="C3" t="s">
-        <v>132</v>
-      </c>
-      <c r="D3" t="s">
-        <v>18</v>
       </c>
       <c r="E3" t="s">
         <v>97</v>
@@ -1176,8 +1244,8 @@
       <c r="F3" t="s">
         <v>95</v>
       </c>
-      <c r="H3" s="23" t="s">
-        <v>186</v>
+      <c r="H3" s="19" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1185,13 +1253,13 @@
         <v>92</v>
       </c>
       <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" t="s">
+        <v>116</v>
+      </c>
+      <c r="D4" t="s">
         <v>17</v>
-      </c>
-      <c r="C4" t="s">
-        <v>132</v>
-      </c>
-      <c r="D4" t="s">
-        <v>18</v>
       </c>
       <c r="E4" t="s">
         <v>98</v>
@@ -1199,141 +1267,141 @@
       <c r="F4" t="s">
         <v>99</v>
       </c>
-      <c r="H4" s="9"/>
+      <c r="H4" s="7"/>
     </row>
     <row r="5" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" t="s">
+        <v>116</v>
+      </c>
+      <c r="D5" t="s">
         <v>19</v>
       </c>
-      <c r="C5" t="s">
-        <v>132</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
+        <v>137</v>
+      </c>
+      <c r="F5" t="s">
+        <v>138</v>
+      </c>
+      <c r="H5" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E5" t="s">
-        <v>153</v>
-      </c>
-      <c r="F5" t="s">
-        <v>154</v>
-      </c>
-      <c r="H5" s="9" t="s">
+      <c r="I5" t="s">
         <v>21</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>22</v>
-      </c>
-      <c r="J5" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>146</v>
+        <v>130</v>
       </c>
       <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>116</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>132</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>25</v>
       </c>
-      <c r="E6" t="s">
-        <v>26</v>
-      </c>
       <c r="F6" t="s">
-        <v>181</v>
+        <v>159</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>149</v>
+        <v>133</v>
       </c>
       <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>116</v>
+      </c>
+      <c r="D7" t="s">
         <v>27</v>
       </c>
-      <c r="C7" t="s">
-        <v>132</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
+        <v>134</v>
+      </c>
+      <c r="F7" t="s">
         <v>28</v>
       </c>
-      <c r="E7" t="s">
-        <v>150</v>
-      </c>
-      <c r="F7" t="s">
+      <c r="H7" s="7" t="s">
         <v>29</v>
-      </c>
-      <c r="H7" s="9" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="B8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" t="s">
+        <v>116</v>
+      </c>
+      <c r="D8" t="s">
         <v>27</v>
       </c>
-      <c r="C8" t="s">
-        <v>132</v>
-      </c>
-      <c r="D8" t="s">
-        <v>28</v>
-      </c>
       <c r="E8" t="s">
-        <v>152</v>
+        <v>136</v>
       </c>
       <c r="F8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>147</v>
+        <v>131</v>
       </c>
       <c r="B9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" t="s">
+        <v>116</v>
+      </c>
+      <c r="D9" t="s">
         <v>32</v>
       </c>
-      <c r="C9" t="s">
-        <v>132</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>33</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>34</v>
-      </c>
-      <c r="F9" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="B10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" t="s">
+        <v>116</v>
+      </c>
+      <c r="D10" t="s">
         <v>32</v>
       </c>
-      <c r="C10" t="s">
-        <v>132</v>
-      </c>
-      <c r="D10" t="s">
-        <v>33</v>
-      </c>
       <c r="E10" t="s">
+        <v>35</v>
+      </c>
+      <c r="F10" t="s">
         <v>36</v>
-      </c>
-      <c r="F10" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1341,303 +1409,303 @@
         <v>93</v>
       </c>
       <c r="B11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" t="s">
+        <v>116</v>
+      </c>
+      <c r="D11" t="s">
         <v>38</v>
       </c>
-      <c r="C11" t="s">
-        <v>132</v>
-      </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
+        <v>111</v>
+      </c>
+      <c r="F11" t="s">
+        <v>111</v>
+      </c>
+      <c r="H11" s="7" t="s">
         <v>39</v>
-      </c>
-      <c r="E11" t="s">
-        <v>127</v>
-      </c>
-      <c r="F11" t="s">
-        <v>127</v>
-      </c>
-      <c r="H11" s="9" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>128</v>
+        <v>112</v>
       </c>
       <c r="B12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" t="s">
+        <v>116</v>
+      </c>
+      <c r="D12" t="s">
         <v>41</v>
       </c>
-      <c r="C12" t="s">
-        <v>132</v>
-      </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>42</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
         <v>43</v>
-      </c>
-      <c r="F12" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>140</v>
+        <v>124</v>
       </c>
       <c r="B13" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" t="s">
+        <v>116</v>
+      </c>
+      <c r="D13" t="s">
         <v>45</v>
       </c>
-      <c r="C13" t="s">
-        <v>132</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
         <v>46</v>
       </c>
-      <c r="E13" t="s">
-        <v>47</v>
-      </c>
       <c r="F13" t="s">
-        <v>183</v>
+        <v>161</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="B14" t="s">
+        <v>47</v>
+      </c>
+      <c r="C14" t="s">
+        <v>116</v>
+      </c>
+      <c r="D14" t="s">
         <v>48</v>
       </c>
-      <c r="C14" t="s">
-        <v>132</v>
-      </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
         <v>49</v>
       </c>
-      <c r="E14" t="s">
+      <c r="F14" t="s">
         <v>50</v>
-      </c>
-      <c r="F14" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="B15" t="s">
+        <v>51</v>
+      </c>
+      <c r="C15" t="s">
+        <v>116</v>
+      </c>
+      <c r="D15" t="s">
         <v>52</v>
       </c>
-      <c r="C15" t="s">
-        <v>132</v>
-      </c>
-      <c r="D15" t="s">
-        <v>53</v>
-      </c>
       <c r="E15" t="s">
-        <v>139</v>
+        <v>123</v>
       </c>
       <c r="F15" t="s">
-        <v>182</v>
+        <v>160</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>143</v>
+        <v>127</v>
       </c>
       <c r="B16" t="s">
+        <v>53</v>
+      </c>
+      <c r="C16" t="s">
+        <v>116</v>
+      </c>
+      <c r="D16" t="s">
         <v>54</v>
-      </c>
-      <c r="C16" t="s">
-        <v>132</v>
-      </c>
-      <c r="D16" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
       <c r="B17" t="s">
+        <v>55</v>
+      </c>
+      <c r="C17" t="s">
+        <v>116</v>
+      </c>
+      <c r="D17" t="s">
         <v>56</v>
-      </c>
-      <c r="C17" t="s">
-        <v>132</v>
-      </c>
-      <c r="D17" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
       <c r="B18" t="s">
+        <v>58</v>
+      </c>
+      <c r="C18" t="s">
+        <v>116</v>
+      </c>
+      <c r="D18" t="s">
         <v>59</v>
       </c>
-      <c r="C18" t="s">
-        <v>132</v>
-      </c>
-      <c r="D18" t="s">
+      <c r="E18" t="s">
         <v>60</v>
       </c>
-      <c r="E18" t="s">
+      <c r="F18" t="s">
         <v>61</v>
-      </c>
-      <c r="F18" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>130</v>
+        <v>114</v>
       </c>
       <c r="B19" t="s">
+        <v>62</v>
+      </c>
+      <c r="C19" t="s">
+        <v>116</v>
+      </c>
+      <c r="D19" t="s">
         <v>63</v>
       </c>
-      <c r="C19" t="s">
-        <v>132</v>
-      </c>
-      <c r="D19" t="s">
-        <v>64</v>
-      </c>
       <c r="E19" t="s">
+        <v>70</v>
+      </c>
+      <c r="F19" s="8" t="s">
         <v>71</v>
-      </c>
-      <c r="F19" s="10" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="B20" t="s">
+        <v>64</v>
+      </c>
+      <c r="C20" t="s">
+        <v>116</v>
+      </c>
+      <c r="D20" t="s">
         <v>65</v>
       </c>
-      <c r="C20" t="s">
-        <v>132</v>
-      </c>
-      <c r="D20" t="s">
-        <v>66</v>
-      </c>
       <c r="E20" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
+        <v>66</v>
+      </c>
+      <c r="C21" t="s">
+        <v>116</v>
+      </c>
+      <c r="D21" t="s">
         <v>67</v>
-      </c>
-      <c r="C21" t="s">
-        <v>132</v>
-      </c>
-      <c r="D21" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>175</v>
+        <v>155</v>
       </c>
       <c r="B22" t="s">
-        <v>141</v>
+        <v>125</v>
       </c>
       <c r="C22" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
       <c r="D22" t="s">
-        <v>177</v>
+        <v>157</v>
       </c>
       <c r="E22" t="s">
-        <v>178</v>
+        <v>158</v>
       </c>
       <c r="F22" t="s">
-        <v>176</v>
+        <v>156</v>
       </c>
       <c r="G22" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>145</v>
+        <v>129</v>
       </c>
       <c r="B23" t="s">
-        <v>142</v>
+        <v>126</v>
       </c>
       <c r="C23" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
       <c r="D23" t="s">
+        <v>73</v>
+      </c>
+      <c r="E23" t="s">
         <v>74</v>
       </c>
-      <c r="E23" t="s">
+      <c r="F23" t="s">
         <v>75</v>
-      </c>
-      <c r="F23" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>134</v>
+        <v>118</v>
       </c>
       <c r="B24" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
       <c r="C24" t="s">
-        <v>136</v>
+        <v>120</v>
       </c>
       <c r="D24" t="s">
-        <v>137</v>
+        <v>121</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>173</v>
+        <v>153</v>
       </c>
       <c r="B25" t="s">
-        <v>174</v>
+        <v>154</v>
       </c>
       <c r="C25" t="s">
-        <v>136</v>
+        <v>120</v>
       </c>
       <c r="D25" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
       <c r="B26" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C26" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
       <c r="E26" t="s">
-        <v>164</v>
-      </c>
-      <c r="F26" s="21" t="s">
-        <v>165</v>
+        <v>148</v>
+      </c>
+      <c r="F26" s="17" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>168</v>
+        <v>152</v>
       </c>
       <c r="B27" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C27" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
       <c r="E27" t="s">
-        <v>167</v>
-      </c>
-      <c r="F27" s="21" t="s">
-        <v>166</v>
+        <v>151</v>
+      </c>
+      <c r="F27" s="17" t="s">
+        <v>150</v>
       </c>
     </row>
   </sheetData>
@@ -1654,7 +1722,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1666,60 +1734,60 @@
     <col min="5" max="5" width="18.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="20.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="154.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.85546875" customWidth="1"/>
     <col min="9" max="9" width="16.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
-        <v>155</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>156</v>
-      </c>
-      <c r="C1" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="D1" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="E1" s="11" t="s">
-        <v>158</v>
-      </c>
-      <c r="F1" s="11" t="s">
-        <v>161</v>
-      </c>
-      <c r="G1" s="11" t="s">
-        <v>159</v>
-      </c>
-      <c r="H1" s="11" t="s">
-        <v>160</v>
-      </c>
-      <c r="I1" s="11" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" s="14" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="22">
+      <c r="A1" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" s="11" customFormat="1" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="18">
         <v>2005300197</v>
       </c>
-      <c r="B2" s="15" t="s">
-        <v>123</v>
-      </c>
-      <c r="C2" s="16" t="s">
+      <c r="B2" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="C2" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="E2" s="14" t="s">
-        <v>129</v>
-      </c>
-      <c r="G2" s="14" t="s">
-        <v>109</v>
-      </c>
-      <c r="H2" s="14" t="s">
-        <v>189</v>
+      <c r="E2" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="H2" s="20" t="s">
+        <v>184</v>
       </c>
     </row>
   </sheetData>
@@ -1728,343 +1796,392 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B782347-B805-4EA9-85D0-BA3F59351EBB}">
-  <dimension ref="A1:K3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:S7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.7109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.28515625" style="8" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.5703125" style="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="24.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="30.140625" customWidth="1"/>
+    <col min="1" max="1" width="25.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.28515625" style="6" customWidth="1"/>
+    <col min="4" max="4" width="9.85546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.28515625" style="6" customWidth="1"/>
+    <col min="11" max="11" width="19.140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.7109375" style="4" customWidth="1"/>
+    <col min="16" max="16" width="28.85546875" customWidth="1"/>
+    <col min="17" max="17" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="29.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="R1" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="S1" s="9" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" s="11" customFormat="1" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="H2" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="I2" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="J2" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="D1" s="2" t="s">
+      <c r="K2" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="L2" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="M2" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="N2" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="O2" s="22" t="s">
+        <v>123</v>
+      </c>
+      <c r="R2" s="16"/>
+    </row>
+    <row r="3" spans="1:19" s="11" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="G3" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H1" s="1" t="s">
+      <c r="H3" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="I3" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="J3" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="K3" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="L3" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="M3" s="14">
         <v>2</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="K1" s="12" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" s="14" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="B2" s="15" t="s">
-        <v>123</v>
-      </c>
-      <c r="C2" s="15" t="s">
+      <c r="N3" s="15"/>
+      <c r="O3" s="15"/>
+      <c r="R3" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="S3" s="11" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="B4" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="D2" s="15" t="s">
-        <v>185</v>
-      </c>
-      <c r="E2" s="15" t="s">
+      <c r="C4" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="H4" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="I4" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="J4" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="K4" s="12"/>
+      <c r="L4" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="M4" s="14"/>
+      <c r="N4" s="15"/>
+      <c r="O4" s="15"/>
+      <c r="P4" s="20" t="s">
+        <v>180</v>
+      </c>
+      <c r="Q4" s="11"/>
+      <c r="R4" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="S4" s="11" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="B5" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="E5" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="G2" s="14" t="s">
+      <c r="F5" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="H2" s="14" t="s">
-        <v>129</v>
-      </c>
-      <c r="I2" s="16" t="s">
+      <c r="G5" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="H5" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="J2" s="16" t="s">
+      <c r="I5" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="K2" s="17" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
+      <c r="J5" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="K5" s="12"/>
+      <c r="L5" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="M5" s="14"/>
+      <c r="N5" s="15"/>
+      <c r="O5" s="15"/>
+      <c r="P5" s="20" t="s">
+        <v>178</v>
+      </c>
+      <c r="Q5" s="11"/>
+      <c r="R5" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="S5" s="11" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" s="11" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="6"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7"/>
+      <c r="G7"/>
+      <c r="H7"/>
+      <c r="I7"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="13"/>
+      <c r="M7" s="14"/>
+      <c r="N7" s="15"/>
+      <c r="O7" s="15"/>
+      <c r="R7" s="16"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:I13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68A67991-E07C-48E9-BCCB-465C8EC704B9}">
+  <dimension ref="A1:A13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.28515625" style="8" customWidth="1"/>
-    <col min="3" max="3" width="19.140625" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="32.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="29.42578125" customWidth="1"/>
+    <col min="1" max="1" width="240.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="I1" s="12" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" s="14" customFormat="1" ht="111" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="B2" s="15" t="s">
-        <v>102</v>
-      </c>
-      <c r="C2" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="D2" s="16" t="s">
-        <v>88</v>
-      </c>
-      <c r="E2" s="18" t="s">
-        <v>77</v>
-      </c>
-      <c r="F2" s="19" t="s">
-        <v>90</v>
-      </c>
-      <c r="I2" s="20" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" s="14" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="B3" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="C3" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="D3" s="16" t="s">
-        <v>89</v>
-      </c>
-      <c r="E3" s="18">
-        <v>2</v>
-      </c>
-      <c r="F3" s="19"/>
-      <c r="I3" s="20" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="C4" s="4"/>
-      <c r="D4" t="s">
-        <v>105</v>
-      </c>
-      <c r="E4" s="5"/>
-      <c r="G4" t="s">
-        <v>126</v>
-      </c>
-      <c r="I4" s="13" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="D5" t="s">
-        <v>105</v>
-      </c>
-      <c r="G5" t="s">
-        <v>106</v>
-      </c>
-      <c r="I5" s="13" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="D6" t="s">
-        <v>105</v>
-      </c>
-      <c r="G6" t="s">
-        <v>107</v>
-      </c>
-      <c r="I6" s="13" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="D7" t="s">
-        <v>105</v>
-      </c>
-      <c r="G7" t="s">
-        <v>114</v>
-      </c>
-      <c r="I7" s="13" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="D8" t="s">
-        <v>105</v>
-      </c>
-      <c r="G8" t="s">
-        <v>110</v>
-      </c>
-      <c r="I8" s="13" t="s">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="D9" t="s">
-        <v>105</v>
-      </c>
-      <c r="G9" t="s">
+    <row r="4" spans="1:1" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="21" t="s">
         <v>170</v>
       </c>
-      <c r="I9" s="13" t="s">
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="21" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="D10" t="s">
-        <v>105</v>
-      </c>
-      <c r="G10" t="s">
-        <v>172</v>
-      </c>
-      <c r="I10" s="13" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B11" s="4"/>
-      <c r="I11" s="13"/>
-    </row>
-    <row r="13" spans="1:9" s="14" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="15"/>
-      <c r="C13" s="15"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="19"/>
-      <c r="I13" s="20"/>
+    <row r="10" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>183</v>
+      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/voorbeelden/OMS-Light-profiel.xlsx
+++ b/voorbeelden/OMS-Light-profiel.xlsx
@@ -8,22 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\geriw\Documents\GitHub\waterkwaliteitapi\voorbeelden\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B23163A-17B0-4719-88AB-8975B7AD17B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C5DA3EB-903E-4BF8-BBD0-1E7C00224715}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24360" yWindow="615" windowWidth="31110" windowHeight="14580" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="24360" yWindow="615" windowWidth="31110" windowHeight="14580" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="References" sheetId="1" r:id="rId1"/>
-    <sheet name="Sampling" sheetId="5" r:id="rId2"/>
-    <sheet name="Observations" sheetId="3" r:id="rId3"/>
-    <sheet name="Zoeken" sheetId="6" r:id="rId4"/>
+    <sheet name="Observations" sheetId="3" r:id="rId2"/>
+    <sheet name="Zoeken" sheetId="6" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="185">
   <si>
     <t>ObservationId</t>
   </si>
@@ -31,9 +30,6 @@
     <t>Procedure</t>
   </si>
   <si>
-    <t>SamplingStrategy</t>
-  </si>
-  <si>
     <t>ResultTime</t>
   </si>
   <si>
@@ -253,6 +249,9 @@
     <t>Utermöhl</t>
   </si>
   <si>
+    <t>Metadata</t>
+  </si>
+  <si>
     <t>observed</t>
   </si>
   <si>
@@ -274,12 +273,6 @@
     <t>ObservableProperty</t>
   </si>
   <si>
-    <t>SamplingTime</t>
-  </si>
-  <si>
-    <t>2005-05-19 00:00:00 +02:00</t>
-  </si>
-  <si>
     <t>2005-05-19 14:30:00 +02:00</t>
   </si>
   <si>
@@ -340,12 +333,6 @@
     <t>/ORG/EAS</t>
   </si>
   <si>
-    <t>8e29-988117da1fb4-3</t>
-  </si>
-  <si>
-    <t>8e29-988117da1fb4-4</t>
-  </si>
-  <si>
     <t>Deployment</t>
   </si>
   <si>
@@ -442,30 +429,6 @@
     <t>Diemerzeedijk</t>
   </si>
   <si>
-    <t>SampleId</t>
-  </si>
-  <si>
-    <t>SamplingLocation</t>
-  </si>
-  <si>
-    <t>Time</t>
-  </si>
-  <si>
-    <t>SamplingProcedure</t>
-  </si>
-  <si>
-    <t>Sampler</t>
-  </si>
-  <si>
-    <t>Observations</t>
-  </si>
-  <si>
-    <t>PreparationProcedure</t>
-  </si>
-  <si>
-    <t>RelatedSampling</t>
-  </si>
-  <si>
     <t>/PROC/DIATM_A002</t>
   </si>
   <si>
@@ -517,160 +480,110 @@
     <t>https://www.aquo.nl/index.php/Id-0eafa483-2875-4c94-890d-66258a6b4d88</t>
   </si>
   <si>
-    <t>complex</t>
-  </si>
-  <si>
-    <t>Complex</t>
-  </si>
-  <si>
     <t>RelatedObservation</t>
   </si>
   <si>
     <t>RelationRole</t>
   </si>
   <si>
-    <t>context</t>
-  </si>
-  <si>
-    <t>/observations?$filter=parameter in ('Amphora [1]', 'Amphora [2]', 'Amphora [3]')</t>
-  </si>
-  <si>
     <t>/observations?$filter=taxongroup/code eq 'DIATM'</t>
   </si>
   <si>
     <t>/observations?$filter=tree('Cyprinus')</t>
   </si>
   <si>
-    <t xml:space="preserve">/observations?$filter=ufoi/code eq 'DIEMZDK' and resulttime gt '2005-01-01' and resulttime lt '2019-01-01' and parameter eq 'Amphora [2]' </t>
-  </si>
-  <si>
-    <t>/observations?$filter=type in ('count', 'measure' , 'complex' , 'truth', 'timeseries',  'grid', 'coverage' )</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/observations?$filter=type eq 'count' or type eq 'measure' or type eq 'complex' or type eq 'truth' or type eq 'timeseries' or type eq 'grid' or type eq 'coverage' </t>
-  </si>
-  <si>
     <t>/observations?$orderby=resulttime desc&amp;$top=1000&amp;$skip=20000&amp;$count=true</t>
   </si>
   <si>
-    <t>/observations?$filter=contains(ufoi/code, 'IEMZD') and year(resulttime) gt 2005 and year(resulttime) lt and parameter eq 'Amphora [2]'  and measurevalue gt 200.5</t>
-  </si>
-  <si>
-    <t>/observations?$filter=geo.distance(ufoi/geography, geometry'POINT(800 1000) lt 50 and parameter eq 'Amphora [2]'&amp;coord=RD</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>MAGNIFICATION:100x</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">  </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>SHAPE:SPHERIC</t>
-    </r>
-  </si>
-  <si>
-    <t>Limitsymbol</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">LIFEFORM:CEL,       PURPOSE:MT,   </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>MEASUREMENTPAK:DT.AB</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">,  COMPARTMENT:OW,  </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>MEASUREMENTSET:289919, COLLECTIONREF:2005-288123</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>TAXONTYPE:DIATM</t>
-    </r>
-  </si>
-  <si>
-    <t>/observations?$filter=/ref/LV/code not eq null</t>
-  </si>
-  <si>
-    <t>/observations?$filter=/ref/LV/code eq 'CEL' and /ref/COMPARTMENT/code eq 'OW'</t>
-  </si>
-  <si>
     <t>/observations?$select=ufoi/code,resulttime,parameter,UOM/symbol,measurevalue,/ref/COMPARTMENT/code</t>
   </si>
   <si>
-    <t>8e29-988117da1fb4-1, 8e29-988117da1fb4-2, 8e29-988117da1fb4-3, 8e29-988117da1fb4-4</t>
+    <t>Welke procedure is gevolgd?</t>
+  </si>
+  <si>
+    <t>Welke locatie?</t>
+  </si>
+  <si>
+    <t>Exacte locatie</t>
+  </si>
+  <si>
+    <t>Wie heeft gemeten?</t>
+  </si>
+  <si>
+    <t>Wanneer gemeten?</t>
+  </si>
+  <si>
+    <t>Identificatie</t>
+  </si>
+  <si>
+    <t>Grootheid</t>
+  </si>
+  <si>
+    <t>Soort observatie</t>
+  </si>
+  <si>
+    <t>Gemeten waarde</t>
+  </si>
+  <si>
+    <t>Gemeten eenheid</t>
+  </si>
+  <si>
+    <t>Toevoeging</t>
+  </si>
+  <si>
+    <t>Hoort bij observatie</t>
+  </si>
+  <si>
+    <t>Rol</t>
+  </si>
+  <si>
+    <t>Wat is er gemeten?</t>
+  </si>
+  <si>
+    <t>Waarom is er gemeten?    In kader van welk project?</t>
+  </si>
+  <si>
+    <t>taxon:Amphora [2], compartment:OW, lifeform:CEL</t>
+  </si>
+  <si>
+    <t>magnefication100x  shape:SPHERIC</t>
+  </si>
+  <si>
+    <t>taxon:Amphora [2], compartment:OW, lifeform:CEL,  limit:&lt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> measurementpackage:DT.AB,   measurmentset:289919, sample:2005-288123</t>
+  </si>
+  <si>
+    <t>/$observations?</t>
+  </si>
+  <si>
+    <t>/observations?$filter=ufoi/code eq 'DIEMZDK' and resulttime gt '2005-01-01' and resulttime lt '2019-01-01' and parameter/any(v: v/key eq 'taxon' and key/value eq 'Amphora [2]')</t>
+  </si>
+  <si>
+    <t>/observations?$filter=geo.distance(ufoi/geography, geometry'POINT(800 1000) lt 50 and parameter/any(v: v/key eq 'taxon' and key/value eq 'Amphora [2]')&amp;coord=RD</t>
+  </si>
+  <si>
+    <t>/observations?$filter=parameter/any(v: v/key eq 'taxon' and key/valur in ('Amphora [2]''))</t>
+  </si>
+  <si>
+    <t>/observations?$filter=parameter/any(v: v/value eq 'LV-CEL')  and parameter/any(v: v/value eq 'OW')    // Alle levensform in cel in oppervlaktewarer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/observations?$filter=type eq 'count' or type eq 'measure' or type eq 'truth' or type eq 'timeseries' or type eq 'grid' or type eq 'coverage' </t>
+  </si>
+  <si>
+    <t>/observations?$filter=type in ('count', 'measure' , 'truth', 'timeseries',  'grid', 'coverage' )</t>
+  </si>
+  <si>
+    <t>/observations?$filter=contains(ufoi/code, 'IEMZD') and year(resulttime) gt 2005 and year(resulttime) lt and parameter/any(v: v/key eq 'taxon' and key/value eq 'Amphora [2]')  and measurevalue gt 200.5</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -740,6 +653,13 @@
     <font>
       <i/>
       <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -756,6 +676,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -786,7 +712,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -821,28 +747,40 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="3" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1172,540 +1110,540 @@
   <sheetData>
     <row r="1" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D2" t="s">
         <v>11</v>
       </c>
-      <c r="C2" t="s">
-        <v>116</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>12</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>13</v>
       </c>
-      <c r="F2" t="s">
+      <c r="H2" s="7" t="s">
         <v>14</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" t="s">
+        <v>112</v>
+      </c>
+      <c r="D3" t="s">
         <v>16</v>
       </c>
-      <c r="C3" t="s">
-        <v>116</v>
-      </c>
-      <c r="D3" t="s">
-        <v>17</v>
-      </c>
       <c r="E3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F3" t="s">
-        <v>95</v>
-      </c>
-      <c r="H3" s="19" t="s">
-        <v>163</v>
+        <v>93</v>
+      </c>
+      <c r="H3" s="20" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" t="s">
+        <v>112</v>
+      </c>
+      <c r="D4" t="s">
         <v>16</v>
       </c>
-      <c r="C4" t="s">
-        <v>116</v>
-      </c>
-      <c r="D4" t="s">
-        <v>17</v>
-      </c>
       <c r="E4" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F4" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="H4" s="7"/>
     </row>
     <row r="5" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" t="s">
+        <v>112</v>
+      </c>
+      <c r="D5" t="s">
         <v>18</v>
       </c>
-      <c r="C5" t="s">
-        <v>116</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
+        <v>133</v>
+      </c>
+      <c r="F5" t="s">
+        <v>134</v>
+      </c>
+      <c r="H5" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E5" t="s">
-        <v>137</v>
-      </c>
-      <c r="F5" t="s">
-        <v>138</v>
-      </c>
-      <c r="H5" s="7" t="s">
+      <c r="I5" t="s">
         <v>20</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>21</v>
-      </c>
-      <c r="J5" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>112</v>
+      </c>
+      <c r="D6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
-        <v>116</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>24</v>
       </c>
-      <c r="E6" t="s">
-        <v>25</v>
-      </c>
       <c r="F6" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>112</v>
+      </c>
+      <c r="D7" t="s">
         <v>26</v>
       </c>
-      <c r="C7" t="s">
-        <v>116</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
+        <v>130</v>
+      </c>
+      <c r="F7" t="s">
         <v>27</v>
       </c>
-      <c r="E7" t="s">
-        <v>134</v>
-      </c>
-      <c r="F7" t="s">
+      <c r="H7" s="7" t="s">
         <v>28</v>
-      </c>
-      <c r="H7" s="7" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>112</v>
+      </c>
+      <c r="D8" t="s">
         <v>26</v>
       </c>
-      <c r="C8" t="s">
-        <v>116</v>
-      </c>
-      <c r="D8" t="s">
-        <v>27</v>
-      </c>
       <c r="E8" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="F8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" t="s">
+        <v>112</v>
+      </c>
+      <c r="D9" t="s">
         <v>31</v>
       </c>
-      <c r="C9" t="s">
-        <v>116</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>32</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>33</v>
-      </c>
-      <c r="F9" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" t="s">
+        <v>112</v>
+      </c>
+      <c r="D10" t="s">
         <v>31</v>
       </c>
-      <c r="C10" t="s">
-        <v>116</v>
-      </c>
-      <c r="D10" t="s">
-        <v>32</v>
-      </c>
       <c r="E10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F10" t="s">
         <v>35</v>
-      </c>
-      <c r="F10" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" t="s">
+        <v>112</v>
+      </c>
+      <c r="D11" t="s">
         <v>37</v>
       </c>
-      <c r="C11" t="s">
-        <v>116</v>
-      </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
+        <v>107</v>
+      </c>
+      <c r="F11" t="s">
+        <v>107</v>
+      </c>
+      <c r="H11" s="7" t="s">
         <v>38</v>
-      </c>
-      <c r="E11" t="s">
-        <v>111</v>
-      </c>
-      <c r="F11" t="s">
-        <v>111</v>
-      </c>
-      <c r="H11" s="7" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B12" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" t="s">
+        <v>112</v>
+      </c>
+      <c r="D12" t="s">
         <v>40</v>
       </c>
-      <c r="C12" t="s">
-        <v>116</v>
-      </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>41</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
         <v>42</v>
-      </c>
-      <c r="F12" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B13" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" t="s">
+        <v>112</v>
+      </c>
+      <c r="D13" t="s">
         <v>44</v>
       </c>
-      <c r="C13" t="s">
-        <v>116</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
         <v>45</v>
       </c>
-      <c r="E13" t="s">
-        <v>46</v>
-      </c>
       <c r="F13" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C14" t="s">
+        <v>112</v>
+      </c>
+      <c r="D14" t="s">
         <v>47</v>
       </c>
-      <c r="C14" t="s">
-        <v>116</v>
-      </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
         <v>48</v>
       </c>
-      <c r="E14" t="s">
+      <c r="F14" t="s">
         <v>49</v>
-      </c>
-      <c r="F14" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B15" t="s">
+        <v>50</v>
+      </c>
+      <c r="C15" t="s">
+        <v>112</v>
+      </c>
+      <c r="D15" t="s">
         <v>51</v>
       </c>
-      <c r="C15" t="s">
-        <v>116</v>
-      </c>
-      <c r="D15" t="s">
-        <v>52</v>
-      </c>
       <c r="E15" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="F15" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B16" t="s">
+        <v>52</v>
+      </c>
+      <c r="C16" t="s">
+        <v>112</v>
+      </c>
+      <c r="D16" t="s">
         <v>53</v>
-      </c>
-      <c r="C16" t="s">
-        <v>116</v>
-      </c>
-      <c r="D16" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="B17" t="s">
+        <v>54</v>
+      </c>
+      <c r="C17" t="s">
+        <v>112</v>
+      </c>
+      <c r="D17" t="s">
         <v>55</v>
-      </c>
-      <c r="C17" t="s">
-        <v>116</v>
-      </c>
-      <c r="D17" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B18" t="s">
+        <v>57</v>
+      </c>
+      <c r="C18" t="s">
+        <v>112</v>
+      </c>
+      <c r="D18" t="s">
         <v>58</v>
       </c>
-      <c r="C18" t="s">
-        <v>116</v>
-      </c>
-      <c r="D18" t="s">
+      <c r="E18" t="s">
         <v>59</v>
       </c>
-      <c r="E18" t="s">
+      <c r="F18" t="s">
         <v>60</v>
-      </c>
-      <c r="F18" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B19" t="s">
+        <v>61</v>
+      </c>
+      <c r="C19" t="s">
+        <v>112</v>
+      </c>
+      <c r="D19" t="s">
         <v>62</v>
       </c>
-      <c r="C19" t="s">
-        <v>116</v>
-      </c>
-      <c r="D19" t="s">
-        <v>63</v>
-      </c>
       <c r="E19" t="s">
+        <v>69</v>
+      </c>
+      <c r="F19" s="8" t="s">
         <v>70</v>
-      </c>
-      <c r="F19" s="8" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B20" t="s">
+        <v>63</v>
+      </c>
+      <c r="C20" t="s">
+        <v>112</v>
+      </c>
+      <c r="D20" t="s">
         <v>64</v>
       </c>
-      <c r="C20" t="s">
-        <v>116</v>
-      </c>
-      <c r="D20" t="s">
-        <v>65</v>
-      </c>
       <c r="E20" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
+        <v>65</v>
+      </c>
+      <c r="C21" t="s">
+        <v>112</v>
+      </c>
+      <c r="D21" t="s">
         <v>66</v>
-      </c>
-      <c r="C21" t="s">
-        <v>116</v>
-      </c>
-      <c r="D21" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="B22" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C22" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="D22" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="E22" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="F22" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="G22" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B23" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C23" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="D23" t="s">
+        <v>72</v>
+      </c>
+      <c r="E23" t="s">
         <v>73</v>
       </c>
-      <c r="E23" t="s">
+      <c r="F23" t="s">
         <v>74</v>
-      </c>
-      <c r="F23" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B24" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C24" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="D24" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="B25" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="C25" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="D25" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="B26" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C26" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="E26" t="s">
-        <v>148</v>
-      </c>
-      <c r="F26" s="17" t="s">
-        <v>149</v>
+        <v>136</v>
+      </c>
+      <c r="F26" s="19" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="B27" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C27" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="E27" t="s">
-        <v>151</v>
-      </c>
-      <c r="F27" s="17" t="s">
-        <v>150</v>
+        <v>139</v>
+      </c>
+      <c r="F27" s="19" t="s">
+        <v>138</v>
       </c>
     </row>
   </sheetData>
@@ -1718,93 +1656,15 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9D6BD85-94FA-44D7-9DD0-0A664F8BBB70}">
-  <dimension ref="A1:I2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="24.140625" customWidth="1"/>
-    <col min="2" max="2" width="24.42578125" customWidth="1"/>
-    <col min="3" max="3" width="24.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.85546875" customWidth="1"/>
-    <col min="9" max="9" width="16.140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>145</v>
-      </c>
-      <c r="G1" s="9" t="s">
-        <v>143</v>
-      </c>
-      <c r="H1" s="9" t="s">
-        <v>144</v>
-      </c>
-      <c r="I1" s="9" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" s="11" customFormat="1" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="18">
-        <v>2005300197</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="C2" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="G2" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="H2" s="20" t="s">
-        <v>184</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:S7"/>
+  <dimension ref="A1:P5"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K5" sqref="K5"/>
+      <selection pane="bottomLeft" activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1813,22 +1673,20 @@
     <col min="2" max="2" width="26.7109375" style="6" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24.28515625" style="6" customWidth="1"/>
     <col min="4" max="4" width="9.85546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18" style="6" customWidth="1"/>
     <col min="6" max="6" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="24.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21.28515625" style="6" customWidth="1"/>
-    <col min="11" max="11" width="19.140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.7109375" style="4" customWidth="1"/>
-    <col min="16" max="16" width="28.85546875" customWidth="1"/>
-    <col min="17" max="17" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="29.42578125" customWidth="1"/>
+    <col min="7" max="7" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.28515625" style="6" customWidth="1"/>
+    <col min="9" max="9" width="19.140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.85546875" customWidth="1"/>
+    <col min="11" max="11" width="14.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="28.85546875" customWidth="1"/>
+    <col min="14" max="14" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="29.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>79</v>
       </c>
@@ -1836,13 +1694,13 @@
         <v>80</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>1</v>
@@ -1850,255 +1708,182 @@
       <c r="G1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="J1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="R1" s="10" t="s">
-        <v>166</v>
-      </c>
-      <c r="S1" s="9" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" s="11" customFormat="1" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="O1" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="P1" s="9" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" s="11" customFormat="1" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B2" s="12" t="s">
         <v>81</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>104</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>93</v>
+        <v>102</v>
+      </c>
+      <c r="E2" s="21" t="s">
+        <v>175</v>
       </c>
       <c r="F2" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="I2" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="J2" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="G2" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="H2" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="I2" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="J2" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="K2" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="L2" s="13" t="s">
+      <c r="K2" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="L2" s="17" t="s">
         <v>88</v>
       </c>
-      <c r="M2" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="N2" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="O2" s="22" t="s">
-        <v>123</v>
-      </c>
-      <c r="R2" s="16"/>
-    </row>
-    <row r="3" spans="1:19" s="11" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M2" s="21" t="s">
+        <v>176</v>
+      </c>
+      <c r="O2" s="18"/>
+    </row>
+    <row r="3" spans="1:16" s="11" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B3" s="12" t="s">
         <v>81</v>
       </c>
       <c r="C3" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="E3" s="21" t="s">
+        <v>173</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="G3" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="I3" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="J3" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="K3" s="16">
+        <v>2</v>
+      </c>
+      <c r="L3" s="17"/>
+      <c r="M3" s="21" t="s">
+        <v>174</v>
+      </c>
+      <c r="O3" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="P3" s="11" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" s="14" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="15" t="s">
+        <v>159</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>172</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>161</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="G4" s="23" t="s">
         <v>162</v>
       </c>
-      <c r="D3" s="12" t="s">
-        <v>104</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="F3" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="G3" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="H3" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="I3" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="J3" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="K3" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="L3" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="M3" s="14">
-        <v>2</v>
-      </c>
-      <c r="N3" s="15"/>
-      <c r="O3" s="15"/>
-      <c r="R3" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="S3" s="11" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>162</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>104</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="F4" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="G4" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="H4" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="I4" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="J4" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="K4" s="12"/>
-      <c r="L4" s="11" t="s">
+      <c r="H4" s="15" t="s">
+        <v>163</v>
+      </c>
+      <c r="I4" s="15" t="s">
         <v>164</v>
       </c>
-      <c r="M4" s="14"/>
-      <c r="N4" s="15"/>
-      <c r="O4" s="15"/>
-      <c r="P4" s="20" t="s">
-        <v>180</v>
-      </c>
-      <c r="Q4" s="11"/>
-      <c r="R4" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="S4" s="11" t="s">
+      <c r="J4" s="15" t="s">
+        <v>165</v>
+      </c>
+      <c r="K4" s="25" t="s">
+        <v>166</v>
+      </c>
+      <c r="L4" s="26" t="s">
+        <v>167</v>
+      </c>
+      <c r="M4" s="15" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="5" spans="1:19" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>162</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>104</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="F5" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="G5" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="H5" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="I5" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="J5" s="12" t="s">
-        <v>106</v>
-      </c>
-      <c r="K5" s="12"/>
-      <c r="L5" s="11" t="s">
-        <v>164</v>
-      </c>
-      <c r="M5" s="14"/>
-      <c r="N5" s="15"/>
-      <c r="O5" s="15"/>
-      <c r="P5" s="20" t="s">
-        <v>178</v>
-      </c>
-      <c r="Q5" s="11"/>
-      <c r="R5" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="S5" s="11" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" s="11" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="6"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7"/>
-      <c r="G7"/>
-      <c r="H7"/>
-      <c r="I7"/>
-      <c r="J7" s="12"/>
-      <c r="K7" s="12"/>
-      <c r="L7" s="13"/>
-      <c r="M7" s="14"/>
-      <c r="N7" s="15"/>
-      <c r="O7" s="15"/>
-      <c r="R7" s="16"/>
+      <c r="O4" s="24" t="s">
+        <v>169</v>
+      </c>
+      <c r="P4" s="14" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" s="11" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="6"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5"/>
+      <c r="G5"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="16"/>
+      <c r="L5" s="17"/>
+      <c r="O5" s="18"/>
     </row>
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
@@ -2107,12 +1892,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68A67991-E07C-48E9-BCCB-465C8EC704B9}">
-  <dimension ref="A1:A13"/>
+  <dimension ref="A1:A16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2122,63 +1907,63 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="21" t="s">
-        <v>170</v>
+        <v>180</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="22" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="21" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+        <v>183</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="22" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>156</v>
+      </c>
+    </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>183</v>
+        <v>157</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>177</v>
       </c>
     </row>
   </sheetData>

--- a/voorbeelden/OMS-Light-profiel.xlsx
+++ b/voorbeelden/OMS-Light-profiel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\geriw\Documents\GitHub\waterkwaliteitapi\voorbeelden\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C5DA3EB-903E-4BF8-BBD0-1E7C00224715}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45B1D724-3685-4368-BEA6-A01DA22BF469}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24360" yWindow="615" windowWidth="31110" windowHeight="14580" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="24360" yWindow="615" windowWidth="31110" windowHeight="14580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="References" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="186">
   <si>
     <t>ObservationId</t>
   </si>
@@ -33,9 +33,6 @@
     <t>ResultTime</t>
   </si>
   <si>
-    <t>ReferenceType</t>
-  </si>
-  <si>
     <t>ReferenceTypeDescription</t>
   </si>
   <si>
@@ -69,15 +66,9 @@
     <t>https://www.aquo.nl/index.php/Id-04f4f467-021b-4218-baa8-9742ed977c61</t>
   </si>
   <si>
-    <t>QTY</t>
-  </si>
-  <si>
     <t>Quantity</t>
   </si>
   <si>
-    <t>LOC</t>
-  </si>
-  <si>
     <t>Location</t>
   </si>
   <si>
@@ -90,18 +81,12 @@
     <t>NMS/NL12, KRW/M16</t>
   </si>
   <si>
-    <t>PAR</t>
-  </si>
-  <si>
     <t>Parameter</t>
   </si>
   <si>
     <t>CHLFa</t>
   </si>
   <si>
-    <t>GE</t>
-  </si>
-  <si>
     <t>Geslacht</t>
   </si>
   <si>
@@ -114,9 +99,6 @@
     <t>Vrouwelijk</t>
   </si>
   <si>
-    <t>LS</t>
-  </si>
-  <si>
     <t>Levensstadium</t>
   </si>
   <si>
@@ -132,18 +114,9 @@
     <t>Adult</t>
   </si>
   <si>
-    <t>TXN</t>
-  </si>
-  <si>
-    <t>Taxon</t>
-  </si>
-  <si>
     <t>https://taxainfo.nl/548387345</t>
   </si>
   <si>
-    <t>CMP</t>
-  </si>
-  <si>
     <t>Compartment</t>
   </si>
   <si>
@@ -153,18 +126,12 @@
     <t>Oppervlakte water</t>
   </si>
   <si>
-    <t>ORGN</t>
-  </si>
-  <si>
     <t>Organ</t>
   </si>
   <si>
     <t>LVR</t>
   </si>
   <si>
-    <t>LF</t>
-  </si>
-  <si>
     <t>LifeForm</t>
   </si>
   <si>
@@ -174,30 +141,15 @@
     <t>Cel</t>
   </si>
   <si>
-    <t>SYM</t>
-  </si>
-  <si>
     <t>LimitSymbol</t>
   </si>
   <si>
-    <t>BHV</t>
-  </si>
-  <si>
     <t>Behavior</t>
   </si>
   <si>
-    <t>QUA</t>
-  </si>
-  <si>
     <t>Quality</t>
   </si>
   <si>
-    <t>PROC</t>
-  </si>
-  <si>
-    <t>SMPSTRAT</t>
-  </si>
-  <si>
     <t>Sampling strategy</t>
   </si>
   <si>
@@ -207,21 +159,12 @@
     <t>Raaien</t>
   </si>
   <si>
-    <t>KRW</t>
-  </si>
-  <si>
     <t>Kaderrichtlijn water</t>
   </si>
   <si>
-    <t>NMS</t>
-  </si>
-  <si>
     <t>Namespace</t>
   </si>
   <si>
-    <t>STW</t>
-  </si>
-  <si>
     <t>Stowa</t>
   </si>
   <si>
@@ -288,27 +231,12 @@
     <t>count</t>
   </si>
   <si>
-    <t>/UOM/%</t>
-  </si>
-  <si>
-    <t>/QTY/AANTFTE</t>
-  </si>
-  <si>
-    <t>/QTY/AANTL</t>
-  </si>
-  <si>
-    <t>/TXN/Amphora [2]</t>
-  </si>
-  <si>
     <t>Key</t>
   </si>
   <si>
     <t>Aantal fractie</t>
   </si>
   <si>
-    <t>/QTY/AANTLFTE</t>
-  </si>
-  <si>
     <t>AANTFTE</t>
   </si>
   <si>
@@ -330,48 +258,21 @@
     <t>Observer</t>
   </si>
   <si>
-    <t>/ORG/EAS</t>
-  </si>
-  <si>
     <t>Deployment</t>
   </si>
   <si>
-    <t>/LIMIT/&lt;</t>
-  </si>
-  <si>
     <t>/LOC_RWS/DIEMZDK</t>
   </si>
   <si>
-    <t>/LF/CEL</t>
-  </si>
-  <si>
     <t>Amphora [2]</t>
   </si>
   <si>
-    <t>/CMP/OW</t>
-  </si>
-  <si>
-    <t>/SMPSTRAT/RAAI</t>
-  </si>
-  <si>
-    <t>/KRW/M21b</t>
-  </si>
-  <si>
-    <t>/NMS/NL80</t>
-  </si>
-  <si>
     <t>True</t>
   </si>
   <si>
     <t>IsLookup</t>
   </si>
   <si>
-    <t>/SET</t>
-  </si>
-  <si>
-    <t>SET</t>
-  </si>
-  <si>
     <t>False</t>
   </si>
   <si>
@@ -384,42 +285,9 @@
     <t>&lt;</t>
   </si>
   <si>
-    <t>/ORG/LVR</t>
-  </si>
-  <si>
-    <t>PRJ_RWS</t>
-  </si>
-  <si>
-    <t>MTH_RWS</t>
-  </si>
-  <si>
-    <t>/BHV</t>
-  </si>
-  <si>
-    <t>/QUA</t>
-  </si>
-  <si>
-    <t>/PRJ_MTH/UTM</t>
-  </si>
-  <si>
-    <t>/PAR/CHLFa</t>
-  </si>
-  <si>
-    <t>/LS/JU</t>
-  </si>
-  <si>
-    <t>/LS/AD</t>
-  </si>
-  <si>
-    <t>/GE/M</t>
-  </si>
-  <si>
     <t>M</t>
   </si>
   <si>
-    <t>/GE/V</t>
-  </si>
-  <si>
     <t>V</t>
   </si>
   <si>
@@ -429,9 +297,6 @@
     <t>Diemerzeedijk</t>
   </si>
   <si>
-    <t>/PROC/DIATM_A002</t>
-  </si>
-  <si>
     <t>DIATM_A002</t>
   </si>
   <si>
@@ -444,18 +309,6 @@
     <t>DIATM_S002</t>
   </si>
   <si>
-    <t>/PROC/DIATM_S002</t>
-  </si>
-  <si>
-    <t>/REF</t>
-  </si>
-  <si>
-    <t>REF</t>
-  </si>
-  <si>
-    <t>/PRJ_RWS/MWTL_DIAT</t>
-  </si>
-  <si>
     <t>MWTL_Diatomeëen</t>
   </si>
   <si>
@@ -474,9 +327,6 @@
     <t>Lever</t>
   </si>
   <si>
-    <t>/RWS_PRJ/MWTL_DIATM</t>
-  </si>
-  <si>
     <t>https://www.aquo.nl/index.php/Id-0eafa483-2875-4c94-890d-66258a6b4d88</t>
   </si>
   <si>
@@ -543,18 +393,6 @@
     <t>Waarom is er gemeten?    In kader van welk project?</t>
   </si>
   <si>
-    <t>taxon:Amphora [2], compartment:OW, lifeform:CEL</t>
-  </si>
-  <si>
-    <t>magnefication100x  shape:SPHERIC</t>
-  </si>
-  <si>
-    <t>taxon:Amphora [2], compartment:OW, lifeform:CEL,  limit:&lt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> measurementpackage:DT.AB,   measurmentset:289919, sample:2005-288123</t>
-  </si>
-  <si>
     <t>/$observations?</t>
   </si>
   <si>
@@ -577,6 +415,171 @@
   </si>
   <si>
     <t>/observations?$filter=contains(ufoi/code, 'IEMZD') and year(resulttime) gt 2005 and year(resulttime) lt and parameter/any(v: v/key eq 'taxon' and key/value eq 'Amphora [2]')  and measurevalue gt 200.5</t>
+  </si>
+  <si>
+    <t>UOM:%</t>
+  </si>
+  <si>
+    <t>QTY:AANTLFTE</t>
+  </si>
+  <si>
+    <t>QTY:AANTL</t>
+  </si>
+  <si>
+    <t>LOC_RWS:DIEMZDK</t>
+  </si>
+  <si>
+    <t>PAR:CHLFa</t>
+  </si>
+  <si>
+    <t>GE:M</t>
+  </si>
+  <si>
+    <t>GE:V</t>
+  </si>
+  <si>
+    <t>LS:JU</t>
+  </si>
+  <si>
+    <t>LS:AD</t>
+  </si>
+  <si>
+    <t>COMP:OW</t>
+  </si>
+  <si>
+    <t>LIMIT:&lt;</t>
+  </si>
+  <si>
+    <t>BHV:</t>
+  </si>
+  <si>
+    <t>QUA:</t>
+  </si>
+  <si>
+    <t>SMPSTRAT:RAAI</t>
+  </si>
+  <si>
+    <t>KRW:M21b</t>
+  </si>
+  <si>
+    <t>NMS:NL80</t>
+  </si>
+  <si>
+    <t>STOWA:</t>
+  </si>
+  <si>
+    <t>PRJ_RW:MWTL_DIAT</t>
+  </si>
+  <si>
+    <t>METH:UTM</t>
+  </si>
+  <si>
+    <t>PROC:DIATM_A002</t>
+  </si>
+  <si>
+    <t>PROC:DIATM_S002</t>
+  </si>
+  <si>
+    <t>COLREF:</t>
+  </si>
+  <si>
+    <t>SETNR:</t>
+  </si>
+  <si>
+    <t>RWS_PRJ:MWTL_DIATM</t>
+  </si>
+  <si>
+    <t>QTY:AANTFTE</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> MEASUREMENTPACKAGE:DT.AB,   SETNUMBER:289919, SAMPLE:2005-288123</t>
+  </si>
+  <si>
+    <t>MAGNIFICATION:100x  SHA{E:SPHEROID</t>
+  </si>
+  <si>
+    <t>ORG:EAS</t>
+  </si>
+  <si>
+    <t>LIFEFORM:CEL</t>
+  </si>
+  <si>
+    <t>ORGAN:LVR</t>
+  </si>
+  <si>
+    <t>DIATM:Amphora [2]</t>
+  </si>
+  <si>
+    <t>DIATM:Amphora [2], COMPARTMENT:OW, LIFEFORM:CEL,  LIMIT:&lt;</t>
+  </si>
+  <si>
+    <t>Diatom</t>
+  </si>
+  <si>
+    <t>MACEV:</t>
+  </si>
+  <si>
+    <t>ZOOPT:</t>
+  </si>
+  <si>
+    <t>MACAG:</t>
+  </si>
+  <si>
+    <t>NEMTD:</t>
+  </si>
+  <si>
+    <t>REPTL:</t>
+  </si>
+  <si>
+    <t>Macroevertebrate</t>
+  </si>
+  <si>
+    <t>Zooplankton</t>
+  </si>
+  <si>
+    <t>Phytoplankton</t>
+  </si>
+  <si>
+    <t>Macroalgae</t>
+  </si>
+  <si>
+    <t>Birds</t>
+  </si>
+  <si>
+    <t>Nemathodes</t>
+  </si>
+  <si>
+    <t>Butterflies</t>
+  </si>
+  <si>
+    <t>Mammals</t>
+  </si>
+  <si>
+    <t>Reptiles</t>
+  </si>
+  <si>
+    <t>Amphibians</t>
+  </si>
+  <si>
+    <t>Macrophytes</t>
+  </si>
+  <si>
+    <t>BIRDS:</t>
+  </si>
+  <si>
+    <t>MAMMAL:</t>
+  </si>
+  <si>
+    <t>AMPHE:</t>
+  </si>
+  <si>
+    <t>BUTFL:</t>
+  </si>
+  <si>
+    <t>PHYTPT:</t>
+  </si>
+  <si>
+    <t>MACPHT:</t>
   </si>
 </sst>
 </file>
@@ -1088,35 +1091,34 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:J27"/>
+  <dimension ref="A1:I38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" customWidth="1"/>
-    <col min="4" max="4" width="26.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.140625" customWidth="1"/>
-    <col min="6" max="6" width="52.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.140625" customWidth="1"/>
-    <col min="8" max="8" width="73.28515625" customWidth="1"/>
-    <col min="9" max="9" width="31.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" customWidth="1"/>
+    <col min="3" max="3" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" customWidth="1"/>
+    <col min="5" max="5" width="52.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.140625" customWidth="1"/>
+    <col min="7" max="7" width="73.28515625" customWidth="1"/>
+    <col min="8" max="8" width="31.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
-        <v>92</v>
+        <v>69</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>113</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>4</v>
@@ -1125,10 +1127,10 @@
         <v>5</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>67</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
@@ -1136,19 +1138,16 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>88</v>
+        <v>131</v>
       </c>
       <c r="B2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C2" t="s">
         <v>10</v>
-      </c>
-      <c r="C2" t="s">
-        <v>112</v>
       </c>
       <c r="D2" t="s">
         <v>11</v>
@@ -1156,499 +1155,545 @@
       <c r="E2" t="s">
         <v>12</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="7" t="s">
+    </row>
+    <row r="3" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="D3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E3" t="s">
+        <v>70</v>
+      </c>
+      <c r="G3" s="20" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>133</v>
+      </c>
+      <c r="B4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E4" t="s">
+        <v>73</v>
+      </c>
+      <c r="G4" s="7"/>
+    </row>
+    <row r="5" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>134</v>
+      </c>
+      <c r="B5" t="s">
+        <v>81</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" t="s">
+        <v>89</v>
+      </c>
+      <c r="E5" t="s">
+        <v>90</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>135</v>
+      </c>
+      <c r="B6" t="s">
+        <v>81</v>
+      </c>
+      <c r="C6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>136</v>
+      </c>
+      <c r="B7" t="s">
+        <v>81</v>
+      </c>
+      <c r="C7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" t="s">
+        <v>87</v>
+      </c>
+      <c r="E7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>137</v>
+      </c>
+      <c r="B8" t="s">
+        <v>81</v>
+      </c>
+      <c r="C8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" t="s">
+        <v>88</v>
+      </c>
+      <c r="E8" t="s">
+        <v>24</v>
+      </c>
+      <c r="G8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>138</v>
+      </c>
+      <c r="B9" t="s">
+        <v>81</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>139</v>
+      </c>
+      <c r="B10" t="s">
+        <v>81</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>161</v>
+      </c>
+      <c r="B11" t="s">
+        <v>81</v>
+      </c>
+      <c r="C11" t="s">
+        <v>163</v>
+      </c>
+      <c r="D11" t="s">
+        <v>80</v>
+      </c>
+      <c r="E11" t="s">
+        <v>80</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>140</v>
+      </c>
+      <c r="B12" t="s">
+        <v>81</v>
+      </c>
+      <c r="C12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" t="s">
+        <v>32</v>
+      </c>
+      <c r="E12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>160</v>
+      </c>
+      <c r="B13" t="s">
+        <v>81</v>
+      </c>
+      <c r="C13" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" t="s">
+        <v>35</v>
+      </c>
+      <c r="E13" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>159</v>
+      </c>
+      <c r="B14" t="s">
+        <v>81</v>
+      </c>
+      <c r="C14" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" t="s">
+        <v>37</v>
+      </c>
+      <c r="E14" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>141</v>
+      </c>
+      <c r="B15" t="s">
+        <v>81</v>
+      </c>
+      <c r="C15" t="s">
+        <v>39</v>
+      </c>
+      <c r="D15" t="s">
+        <v>86</v>
+      </c>
+      <c r="E15" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>142</v>
+      </c>
+      <c r="B16" t="s">
+        <v>81</v>
+      </c>
+      <c r="C16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>143</v>
+      </c>
+      <c r="B17" t="s">
+        <v>81</v>
+      </c>
+      <c r="C17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>144</v>
+      </c>
+      <c r="B18" t="s">
+        <v>81</v>
+      </c>
+      <c r="C18" t="s">
+        <v>42</v>
+      </c>
+      <c r="D18" t="s">
+        <v>43</v>
+      </c>
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>145</v>
+      </c>
+      <c r="B19" t="s">
+        <v>81</v>
+      </c>
+      <c r="C19" t="s">
+        <v>45</v>
+      </c>
+      <c r="D19" t="s">
+        <v>50</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>146</v>
+      </c>
+      <c r="B20" t="s">
+        <v>81</v>
+      </c>
+      <c r="C20" t="s">
+        <v>46</v>
+      </c>
+      <c r="D20" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>147</v>
+      </c>
+      <c r="B21" t="s">
+        <v>81</v>
+      </c>
+      <c r="C21" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>148</v>
+      </c>
+      <c r="B22" t="s">
+        <v>81</v>
+      </c>
+      <c r="C22" t="s">
+        <v>96</v>
+      </c>
+      <c r="D22" t="s">
+        <v>97</v>
+      </c>
+      <c r="E22" t="s">
+        <v>95</v>
+      </c>
+      <c r="F22" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>149</v>
+      </c>
+      <c r="B23" t="s">
+        <v>81</v>
+      </c>
+      <c r="C23" t="s">
+        <v>53</v>
+      </c>
+      <c r="D23" t="s">
+        <v>54</v>
+      </c>
+      <c r="E23" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>153</v>
+      </c>
+      <c r="B24" t="s">
+        <v>83</v>
+      </c>
+      <c r="C24" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>152</v>
+      </c>
+      <c r="B25" t="s">
+        <v>83</v>
+      </c>
+      <c r="C25" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>150</v>
+      </c>
+      <c r="B26" t="s">
+        <v>81</v>
+      </c>
+      <c r="D26" t="s">
+        <v>91</v>
+      </c>
+      <c r="E26" s="19" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>151</v>
+      </c>
+      <c r="B27" t="s">
+        <v>81</v>
+      </c>
+      <c r="D27" t="s">
         <v>94</v>
       </c>
-      <c r="B3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" t="s">
-        <v>112</v>
-      </c>
-      <c r="D3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" t="s">
-        <v>95</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="E27" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="H3" s="20" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>90</v>
-      </c>
-      <c r="B4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" t="s">
-        <v>112</v>
-      </c>
-      <c r="D4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" t="s">
-        <v>96</v>
-      </c>
-      <c r="F4" t="s">
-        <v>97</v>
-      </c>
-      <c r="H4" s="7"/>
-    </row>
-    <row r="5" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>105</v>
-      </c>
-      <c r="B5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" t="s">
-        <v>112</v>
-      </c>
-      <c r="D5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" t="s">
-        <v>133</v>
-      </c>
-      <c r="F5" t="s">
-        <v>134</v>
-      </c>
-      <c r="H5" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="I5" t="s">
-        <v>20</v>
-      </c>
-      <c r="J5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>126</v>
-      </c>
-      <c r="B6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" t="s">
-        <v>112</v>
-      </c>
-      <c r="D6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6" t="s">
-        <v>24</v>
-      </c>
-      <c r="F6" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>129</v>
-      </c>
-      <c r="B7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" t="s">
-        <v>112</v>
-      </c>
-      <c r="D7" t="s">
-        <v>26</v>
-      </c>
-      <c r="E7" t="s">
-        <v>130</v>
-      </c>
-      <c r="F7" t="s">
-        <v>27</v>
-      </c>
-      <c r="H7" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>131</v>
-      </c>
-      <c r="B8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" t="s">
-        <v>112</v>
-      </c>
-      <c r="D8" t="s">
-        <v>26</v>
-      </c>
-      <c r="E8" t="s">
-        <v>132</v>
-      </c>
-      <c r="F8" t="s">
-        <v>29</v>
-      </c>
-      <c r="H8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>127</v>
-      </c>
-      <c r="B9" t="s">
-        <v>30</v>
-      </c>
-      <c r="C9" t="s">
-        <v>112</v>
-      </c>
-      <c r="D9" t="s">
-        <v>31</v>
-      </c>
-      <c r="E9" t="s">
-        <v>32</v>
-      </c>
-      <c r="F9" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>128</v>
-      </c>
-      <c r="B10" t="s">
-        <v>30</v>
-      </c>
-      <c r="C10" t="s">
-        <v>112</v>
-      </c>
-      <c r="D10" t="s">
-        <v>31</v>
-      </c>
-      <c r="E10" t="s">
-        <v>34</v>
-      </c>
-      <c r="F10" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>91</v>
-      </c>
-      <c r="B11" t="s">
-        <v>36</v>
-      </c>
-      <c r="C11" t="s">
-        <v>112</v>
-      </c>
-      <c r="D11" t="s">
-        <v>37</v>
-      </c>
-      <c r="E11" t="s">
-        <v>107</v>
-      </c>
-      <c r="F11" t="s">
-        <v>107</v>
-      </c>
-      <c r="H11" s="7" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>108</v>
-      </c>
-      <c r="B12" t="s">
-        <v>39</v>
-      </c>
-      <c r="C12" t="s">
-        <v>112</v>
-      </c>
-      <c r="D12" t="s">
-        <v>40</v>
-      </c>
-      <c r="E12" t="s">
-        <v>41</v>
-      </c>
-      <c r="F12" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>120</v>
-      </c>
-      <c r="B13" t="s">
-        <v>43</v>
-      </c>
-      <c r="C13" t="s">
-        <v>112</v>
-      </c>
-      <c r="D13" t="s">
-        <v>44</v>
-      </c>
-      <c r="E13" t="s">
-        <v>45</v>
-      </c>
-      <c r="F13" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>106</v>
-      </c>
-      <c r="B14" t="s">
-        <v>46</v>
-      </c>
-      <c r="C14" t="s">
-        <v>112</v>
-      </c>
-      <c r="D14" t="s">
-        <v>47</v>
-      </c>
-      <c r="E14" t="s">
-        <v>48</v>
-      </c>
-      <c r="F14" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>104</v>
-      </c>
-      <c r="B15" t="s">
-        <v>50</v>
-      </c>
-      <c r="C15" t="s">
-        <v>112</v>
-      </c>
-      <c r="D15" t="s">
-        <v>51</v>
-      </c>
-      <c r="E15" t="s">
-        <v>119</v>
-      </c>
-      <c r="F15" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>123</v>
-      </c>
-      <c r="B16" t="s">
-        <v>52</v>
-      </c>
-      <c r="C16" t="s">
-        <v>112</v>
-      </c>
-      <c r="D16" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>124</v>
-      </c>
-      <c r="B17" t="s">
-        <v>54</v>
-      </c>
-      <c r="C17" t="s">
-        <v>112</v>
-      </c>
-      <c r="D17" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>109</v>
-      </c>
-      <c r="B18" t="s">
-        <v>57</v>
-      </c>
-      <c r="C18" t="s">
-        <v>112</v>
-      </c>
-      <c r="D18" t="s">
-        <v>58</v>
-      </c>
-      <c r="E18" t="s">
-        <v>59</v>
-      </c>
-      <c r="F18" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>110</v>
-      </c>
-      <c r="B19" t="s">
-        <v>61</v>
-      </c>
-      <c r="C19" t="s">
-        <v>112</v>
-      </c>
-      <c r="D19" t="s">
-        <v>62</v>
-      </c>
-      <c r="E19" t="s">
-        <v>69</v>
-      </c>
-      <c r="F19" s="8" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>111</v>
-      </c>
-      <c r="B20" t="s">
-        <v>63</v>
-      </c>
-      <c r="C20" t="s">
-        <v>112</v>
-      </c>
-      <c r="D20" t="s">
-        <v>64</v>
-      </c>
-      <c r="E20" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
-        <v>65</v>
-      </c>
-      <c r="C21" t="s">
-        <v>112</v>
-      </c>
-      <c r="D21" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>143</v>
-      </c>
-      <c r="B22" t="s">
-        <v>121</v>
-      </c>
-      <c r="C22" t="s">
-        <v>112</v>
-      </c>
-      <c r="D22" t="s">
-        <v>145</v>
-      </c>
-      <c r="E22" t="s">
-        <v>146</v>
-      </c>
-      <c r="F22" t="s">
-        <v>144</v>
-      </c>
-      <c r="G22" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>125</v>
-      </c>
-      <c r="B23" t="s">
-        <v>122</v>
-      </c>
-      <c r="C23" t="s">
-        <v>112</v>
-      </c>
-      <c r="D23" t="s">
-        <v>72</v>
-      </c>
-      <c r="E23" t="s">
-        <v>73</v>
-      </c>
-      <c r="F23" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>114</v>
-      </c>
-      <c r="B24" t="s">
-        <v>115</v>
-      </c>
-      <c r="C24" t="s">
-        <v>116</v>
-      </c>
-      <c r="D24" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>141</v>
-      </c>
-      <c r="B25" t="s">
-        <v>142</v>
-      </c>
-      <c r="C25" t="s">
-        <v>116</v>
-      </c>
-      <c r="D25" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>135</v>
-      </c>
-      <c r="B26" t="s">
-        <v>56</v>
-      </c>
-      <c r="C26" t="s">
-        <v>112</v>
-      </c>
-      <c r="E26" t="s">
-        <v>136</v>
-      </c>
-      <c r="F26" s="19" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>140</v>
-      </c>
-      <c r="B27" t="s">
-        <v>56</v>
-      </c>
-      <c r="C27" t="s">
-        <v>112</v>
-      </c>
-      <c r="E27" t="s">
-        <v>139</v>
-      </c>
-      <c r="F27" s="19" t="s">
-        <v>138</v>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>164</v>
+      </c>
+      <c r="B28" t="s">
+        <v>81</v>
+      </c>
+      <c r="C28" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>165</v>
+      </c>
+      <c r="B29" t="s">
+        <v>81</v>
+      </c>
+      <c r="C29" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>184</v>
+      </c>
+      <c r="B30" t="s">
+        <v>81</v>
+      </c>
+      <c r="C30" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>166</v>
+      </c>
+      <c r="B31" t="s">
+        <v>81</v>
+      </c>
+      <c r="C31" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>180</v>
+      </c>
+      <c r="B32" t="s">
+        <v>81</v>
+      </c>
+      <c r="C32" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>167</v>
+      </c>
+      <c r="B33" t="s">
+        <v>81</v>
+      </c>
+      <c r="C33" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>183</v>
+      </c>
+      <c r="B34" t="s">
+        <v>81</v>
+      </c>
+      <c r="C34" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>181</v>
+      </c>
+      <c r="B35" t="s">
+        <v>81</v>
+      </c>
+      <c r="C35" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>168</v>
+      </c>
+      <c r="B36" t="s">
+        <v>81</v>
+      </c>
+      <c r="C36" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>182</v>
+      </c>
+      <c r="B37" t="s">
+        <v>81</v>
+      </c>
+      <c r="C37" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>185</v>
+      </c>
+      <c r="B38" t="s">
+        <v>81</v>
+      </c>
+      <c r="C38" t="s">
+        <v>179</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="H3" r:id="rId1" xr:uid="{4C5D2A58-BAD6-4882-B6AB-E4DFF86DDADD}"/>
+    <hyperlink ref="G3" r:id="rId1" xr:uid="{4C5D2A58-BAD6-4882-B6AB-E4DFF86DDADD}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId2"/>
@@ -1662,9 +1707,9 @@
   </sheetPr>
   <dimension ref="A1:P5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K4" sqref="K4"/>
+      <selection pane="bottomLeft" activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1673,7 +1718,7 @@
     <col min="2" max="2" width="26.7109375" style="6" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24.28515625" style="6" customWidth="1"/>
     <col min="4" max="4" width="9.85546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18" style="6" customWidth="1"/>
+    <col min="5" max="5" width="20" style="6" customWidth="1"/>
     <col min="6" max="6" width="22.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="24.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="21.28515625" style="6" customWidth="1"/>
@@ -1681,26 +1726,26 @@
     <col min="10" max="10" width="11.85546875" customWidth="1"/>
     <col min="11" max="11" width="14.140625" style="5" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="28.85546875" customWidth="1"/>
+    <col min="13" max="13" width="29.85546875" customWidth="1"/>
     <col min="14" max="14" width="5.7109375" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="29.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>79</v>
+        <v>60</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>80</v>
+        <v>61</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>103</v>
+        <v>78</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>101</v>
+        <v>77</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>1</v>
@@ -1712,162 +1757,162 @@
         <v>0</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>82</v>
+        <v>63</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>85</v>
+        <v>66</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>99</v>
+        <v>75</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="O1" s="10" t="s">
-        <v>152</v>
+        <v>102</v>
       </c>
       <c r="P1" s="9" t="s">
-        <v>153</v>
+        <v>103</v>
       </c>
     </row>
     <row r="2" spans="1:16" s="11" customFormat="1" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
-        <v>105</v>
+        <v>79</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>81</v>
+        <v>62</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>102</v>
+        <v>158</v>
       </c>
       <c r="E2" s="21" t="s">
-        <v>175</v>
+        <v>162</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>84</v>
+        <v>65</v>
       </c>
       <c r="G2" s="13" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="H2" s="12" t="s">
-        <v>98</v>
+        <v>74</v>
       </c>
       <c r="I2" s="12" t="s">
-        <v>89</v>
+        <v>155</v>
       </c>
       <c r="J2" s="13" t="s">
-        <v>86</v>
+        <v>67</v>
       </c>
       <c r="K2" s="16" t="s">
-        <v>77</v>
+        <v>58</v>
       </c>
       <c r="L2" s="17" t="s">
-        <v>88</v>
+        <v>131</v>
       </c>
       <c r="M2" s="21" t="s">
-        <v>176</v>
+        <v>156</v>
       </c>
       <c r="O2" s="18"/>
     </row>
     <row r="3" spans="1:16" s="11" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
-        <v>105</v>
+        <v>79</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>81</v>
+        <v>62</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>102</v>
+        <v>158</v>
       </c>
       <c r="E3" s="21" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>84</v>
+        <v>65</v>
       </c>
       <c r="G3" s="13" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="H3" s="12" t="s">
-        <v>78</v>
+        <v>59</v>
       </c>
       <c r="I3" s="12" t="s">
-        <v>90</v>
+        <v>133</v>
       </c>
       <c r="J3" s="13" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="K3" s="16">
         <v>2</v>
       </c>
       <c r="L3" s="17"/>
       <c r="M3" s="21" t="s">
-        <v>174</v>
+        <v>157</v>
       </c>
       <c r="O3" s="12" t="s">
-        <v>98</v>
+        <v>74</v>
       </c>
       <c r="P3" s="11" t="s">
-        <v>76</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:16" s="14" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
-        <v>159</v>
+        <v>109</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>160</v>
+        <v>110</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>172</v>
+        <v>122</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>161</v>
+        <v>111</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>171</v>
+        <v>121</v>
       </c>
       <c r="F4" s="14" t="s">
-        <v>158</v>
+        <v>108</v>
       </c>
       <c r="G4" s="23" t="s">
-        <v>162</v>
+        <v>112</v>
       </c>
       <c r="H4" s="15" t="s">
-        <v>163</v>
+        <v>113</v>
       </c>
       <c r="I4" s="15" t="s">
-        <v>164</v>
+        <v>114</v>
       </c>
       <c r="J4" s="15" t="s">
-        <v>165</v>
+        <v>115</v>
       </c>
       <c r="K4" s="25" t="s">
-        <v>166</v>
+        <v>116</v>
       </c>
       <c r="L4" s="26" t="s">
-        <v>167</v>
+        <v>117</v>
       </c>
       <c r="M4" s="15" t="s">
-        <v>168</v>
+        <v>118</v>
       </c>
       <c r="O4" s="24" t="s">
-        <v>169</v>
+        <v>119</v>
       </c>
       <c r="P4" s="14" t="s">
-        <v>170</v>
+        <v>120</v>
       </c>
     </row>
     <row r="5" spans="1:16" s="11" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1907,63 +1952,63 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>178</v>
+        <v>124</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>179</v>
+        <v>125</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>180</v>
+        <v>126</v>
       </c>
     </row>
     <row r="4" spans="1:1" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="22" t="s">
-        <v>154</v>
+        <v>104</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>181</v>
+        <v>127</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>182</v>
+        <v>128</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>183</v>
+        <v>129</v>
       </c>
     </row>
     <row r="8" spans="1:1" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="22" t="s">
-        <v>155</v>
+        <v>105</v>
       </c>
     </row>
     <row r="9" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>184</v>
+        <v>130</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>156</v>
+        <v>106</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>157</v>
+        <v>107</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>177</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>

--- a/voorbeelden/OMS-Light-profiel.xlsx
+++ b/voorbeelden/OMS-Light-profiel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\geriw\Documents\GitHub\waterkwaliteitapi\voorbeelden\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45B1D724-3685-4368-BEA6-A01DA22BF469}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9979AF2E-43B9-44F0-BC9D-A6DB0786B161}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="24360" yWindow="615" windowWidth="31110" windowHeight="14580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="190">
   <si>
     <t>ObservationId</t>
   </si>
@@ -30,6 +30,9 @@
     <t>Procedure</t>
   </si>
   <si>
+    <t>SamplingStrategy</t>
+  </si>
+  <si>
     <t>ResultTime</t>
   </si>
   <si>
@@ -87,9 +90,6 @@
     <t>CHLFa</t>
   </si>
   <si>
-    <t>Geslacht</t>
-  </si>
-  <si>
     <t>Manlijk</t>
   </si>
   <si>
@@ -99,9 +99,6 @@
     <t>Vrouwelijk</t>
   </si>
   <si>
-    <t>Levensstadium</t>
-  </si>
-  <si>
     <t>JU</t>
   </si>
   <si>
@@ -150,18 +147,12 @@
     <t>Quality</t>
   </si>
   <si>
-    <t>Sampling strategy</t>
-  </si>
-  <si>
     <t>RAAI</t>
   </si>
   <si>
     <t>Raaien</t>
   </si>
   <si>
-    <t>Kaderrichtlijn water</t>
-  </si>
-  <si>
     <t>Namespace</t>
   </si>
   <si>
@@ -183,15 +174,6 @@
     <t>NL80</t>
   </si>
   <si>
-    <t>Methode</t>
-  </si>
-  <si>
-    <t>UTM</t>
-  </si>
-  <si>
-    <t>Utermöhl</t>
-  </si>
-  <si>
     <t>Metadata</t>
   </si>
   <si>
@@ -219,9 +201,6 @@
     <t>2005-05-19 14:30:00 +02:00</t>
   </si>
   <si>
-    <t>/SMPSTRAT/DIATM_S002</t>
-  </si>
-  <si>
     <t>Type</t>
   </si>
   <si>
@@ -231,7 +210,7 @@
     <t>count</t>
   </si>
   <si>
-    <t>Key</t>
+    <t>Value</t>
   </si>
   <si>
     <t>Aantal fractie</t>
@@ -261,9 +240,6 @@
     <t>Deployment</t>
   </si>
   <si>
-    <t>/LOC_RWS/DIEMZDK</t>
-  </si>
-  <si>
     <t>Amphora [2]</t>
   </si>
   <si>
@@ -276,12 +252,6 @@
     <t>False</t>
   </si>
   <si>
-    <t>Measurement set number</t>
-  </si>
-  <si>
-    <t>Collection reference</t>
-  </si>
-  <si>
     <t>&lt;</t>
   </si>
   <si>
@@ -297,6 +267,9 @@
     <t>Diemerzeedijk</t>
   </si>
   <si>
+    <t>SamplingProcedure</t>
+  </si>
+  <si>
     <t>DIATM_A002</t>
   </si>
   <si>
@@ -336,24 +309,15 @@
     <t>RelationRole</t>
   </si>
   <si>
-    <t>/observations?$filter=taxongroup/code eq 'DIATM'</t>
-  </si>
-  <si>
-    <t>/observations?$filter=tree('Cyprinus')</t>
+    <t>/observations?$filter=taxontype/code eq 'DIATM'</t>
   </si>
   <si>
     <t>/observations?$orderby=resulttime desc&amp;$top=1000&amp;$skip=20000&amp;$count=true</t>
   </si>
   <si>
-    <t>/observations?$select=ufoi/code,resulttime,parameter,UOM/symbol,measurevalue,/ref/COMPARTMENT/code</t>
-  </si>
-  <si>
     <t>Welke procedure is gevolgd?</t>
   </si>
   <si>
-    <t>Welke locatie?</t>
-  </si>
-  <si>
     <t>Exacte locatie</t>
   </si>
   <si>
@@ -390,33 +354,12 @@
     <t>Wat is er gemeten?</t>
   </si>
   <si>
-    <t>Waarom is er gemeten?    In kader van welk project?</t>
-  </si>
-  <si>
-    <t>/$observations?</t>
-  </si>
-  <si>
-    <t>/observations?$filter=ufoi/code eq 'DIEMZDK' and resulttime gt '2005-01-01' and resulttime lt '2019-01-01' and parameter/any(v: v/key eq 'taxon' and key/value eq 'Amphora [2]')</t>
-  </si>
-  <si>
-    <t>/observations?$filter=geo.distance(ufoi/geography, geometry'POINT(800 1000) lt 50 and parameter/any(v: v/key eq 'taxon' and key/value eq 'Amphora [2]')&amp;coord=RD</t>
-  </si>
-  <si>
-    <t>/observations?$filter=parameter/any(v: v/key eq 'taxon' and key/valur in ('Amphora [2]''))</t>
-  </si>
-  <si>
-    <t>/observations?$filter=parameter/any(v: v/value eq 'LV-CEL')  and parameter/any(v: v/value eq 'OW')    // Alle levensform in cel in oppervlaktewarer</t>
-  </si>
-  <si>
     <t xml:space="preserve">/observations?$filter=type eq 'count' or type eq 'measure' or type eq 'truth' or type eq 'timeseries' or type eq 'grid' or type eq 'coverage' </t>
   </si>
   <si>
     <t>/observations?$filter=type in ('count', 'measure' , 'truth', 'timeseries',  'grid', 'coverage' )</t>
   </si>
   <si>
-    <t>/observations?$filter=contains(ufoi/code, 'IEMZD') and year(resulttime) gt 2005 and year(resulttime) lt and parameter/any(v: v/key eq 'taxon' and key/value eq 'Amphora [2]')  and measurevalue gt 200.5</t>
-  </si>
-  <si>
     <t>UOM:%</t>
   </si>
   <si>
@@ -432,18 +375,6 @@
     <t>PAR:CHLFa</t>
   </si>
   <si>
-    <t>GE:M</t>
-  </si>
-  <si>
-    <t>GE:V</t>
-  </si>
-  <si>
-    <t>LS:JU</t>
-  </si>
-  <si>
-    <t>LS:AD</t>
-  </si>
-  <si>
     <t>COMP:OW</t>
   </si>
   <si>
@@ -468,36 +399,18 @@
     <t>STOWA:</t>
   </si>
   <si>
-    <t>PRJ_RW:MWTL_DIAT</t>
-  </si>
-  <si>
-    <t>METH:UTM</t>
-  </si>
-  <si>
     <t>PROC:DIATM_A002</t>
   </si>
   <si>
     <t>PROC:DIATM_S002</t>
   </si>
   <si>
-    <t>COLREF:</t>
-  </si>
-  <si>
-    <t>SETNR:</t>
-  </si>
-  <si>
     <t>RWS_PRJ:MWTL_DIATM</t>
   </si>
   <si>
     <t>QTY:AANTFTE</t>
   </si>
   <si>
-    <t xml:space="preserve"> MEASUREMENTPACKAGE:DT.AB,   SETNUMBER:289919, SAMPLE:2005-288123</t>
-  </si>
-  <si>
-    <t>MAGNIFICATION:100x  SHA{E:SPHEROID</t>
-  </si>
-  <si>
     <t>ORG:EAS</t>
   </si>
   <si>
@@ -513,9 +426,6 @@
     <t>DIATM:Amphora [2], COMPARTMENT:OW, LIFEFORM:CEL,  LIMIT:&lt;</t>
   </si>
   <si>
-    <t>Diatom</t>
-  </si>
-  <si>
     <t>MACEV:</t>
   </si>
   <si>
@@ -580,6 +490,131 @@
   </si>
   <si>
     <t>MACPHT:</t>
+  </si>
+  <si>
+    <t>SAMPLE:</t>
+  </si>
+  <si>
+    <t>Collection reference (sample)</t>
+  </si>
+  <si>
+    <t>SETID:</t>
+  </si>
+  <si>
+    <t>Id of the measurement set</t>
+  </si>
+  <si>
+    <t>GENDER:M</t>
+  </si>
+  <si>
+    <t>GENDER:V</t>
+  </si>
+  <si>
+    <t>LIFESTAGE:JU</t>
+  </si>
+  <si>
+    <t>LIFESTAGE:AD</t>
+  </si>
+  <si>
+    <t>/observations?$filter=contains(ufoi/code, 'IEMZD') and year(resulttime) gt 2005 and year(resulttime) lt and parameter/any(v: v/key eq 'taxon' and v/value eq 'Amphora [2]')  and measurevalue gt 200.5</t>
+  </si>
+  <si>
+    <t>/observations?$filter=parameter/any(v: v/key eq 'taxon' and v/value in ('Amphora [2]', 'Amphora'))</t>
+  </si>
+  <si>
+    <t>/observations?$select=ufoi/code,resulttime,parameter/value,UOM/symbol,measurevalue</t>
+  </si>
+  <si>
+    <t>Waarom is er gemeten (project)?</t>
+  </si>
+  <si>
+    <t>MAGNIFICATION:100x  SHAPE:SPHEROID</t>
+  </si>
+  <si>
+    <t>Code van de locatie</t>
+  </si>
+  <si>
+    <t>Diatoma</t>
+  </si>
+  <si>
+    <t>/observations?$filter=parameter/any(v: v/value eq 'LV-CEL')  and parameter/any(v: v/value eq 'OW')    // Alle levensform in cel in oppervlaktewater</t>
+  </si>
+  <si>
+    <t>/observations?$filter=ufoi/code eq 'DIEMZDK' and resulttime gt '2005-01-01' and resulttime lt '2019-01-01' and parameter/any(v: v/key eq 'DIATM' and v/value eq 'Amphora [2]')</t>
+  </si>
+  <si>
+    <t>/observations?$filter=geo.distance(ufoi/geography, geometry'POINT(800 1000)' lt 50 and parameter/any(v: v/key eq  'DIATM'  and v/value eq 'Amphora [2]')&amp;coord=RD</t>
+  </si>
+  <si>
+    <t>/observations?$filter=tree('Cyprinus')  -- Custom functie</t>
+  </si>
+  <si>
+    <t>MEASUREMENTPACKAGE:DT.AB,   SETIDR:289919, SAMPLE:2005-288123</t>
+  </si>
+  <si>
+    <t>PRJ_RWS:MWTL_DIAT</t>
+  </si>
+  <si>
+    <t>Gender</t>
+  </si>
+  <si>
+    <t>LifeStage</t>
+  </si>
+  <si>
+    <t>Kaderrichtlijn Water</t>
+  </si>
+  <si>
+    <t>MAGNIFICATION:</t>
+  </si>
+  <si>
+    <t>Dit zijn referenties die het systeem kent en accepteert. De implementatie beslist dat. Het is dus implementatie-afhankelijk. Het systeem moet: 1) Analyseren of de data compleet is en 2) Niet opslaan wat het systeem niet wil hebben. De API dicteert het niet.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Er wordt wél een basis-versie gemaakt, waaraan de implementatie </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>moet</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> voldoen.</t>
+    </r>
+  </si>
+  <si>
+    <t>ORG:RWS</t>
+  </si>
+  <si>
+    <t>Organisation</t>
+  </si>
+  <si>
+    <t>Organisatie: RWS</t>
+  </si>
+  <si>
+    <t>ProjectsTo</t>
+  </si>
+  <si>
+    <t>Measure/UOM</t>
+  </si>
+  <si>
+    <t>ObervableProperty</t>
+  </si>
+  <si>
+    <t>ObservingProcedure</t>
   </si>
 </sst>
 </file>
@@ -627,12 +662,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF6F6F6F"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -686,6 +715,12 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF6F6F6F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -713,9 +748,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -733,10 +768,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -747,13 +778,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -762,28 +793,48 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1091,609 +1142,761 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:I38"/>
+  <dimension ref="A1:J42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E41" sqref="E41"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.5703125" customWidth="1"/>
-    <col min="3" max="3" width="26.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.140625" customWidth="1"/>
-    <col min="5" max="5" width="52.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.140625" customWidth="1"/>
-    <col min="7" max="7" width="73.28515625" customWidth="1"/>
-    <col min="8" max="8" width="31.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.5703125" style="9" customWidth="1"/>
+    <col min="2" max="2" width="8.85546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" style="9" customWidth="1"/>
+    <col min="5" max="5" width="29.140625" style="17" customWidth="1"/>
+    <col min="6" max="6" width="52.42578125" style="9" customWidth="1"/>
+    <col min="7" max="7" width="22.140625" style="9" customWidth="1"/>
+    <col min="8" max="8" width="73.28515625" style="9" customWidth="1"/>
+    <col min="9" max="9" width="31.42578125" style="9" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.28515625" style="9" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="E1" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="23" t="s">
+        <v>186</v>
+      </c>
+      <c r="G1" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="H1" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="23" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="H2" s="27" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="H3" s="28" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="H4" s="27"/>
+    </row>
+    <row r="5" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="I5" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="J5" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="E7" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="H7" s="27" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="E8" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="H8" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="E11" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="H11" s="27" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E12" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E13" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E14" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="E15" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="F17" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E18" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="E19" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="F19" s="9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="F20" s="9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" s="9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="E22" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="F22" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="G22" s="9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="F23" s="9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="F24" s="9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D25" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>131</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="E25" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="F25" s="9" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A26" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="E26" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="F26" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="C2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>132</v>
-      </c>
-      <c r="B3" t="s">
-        <v>81</v>
-      </c>
-      <c r="C3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" t="s">
-        <v>71</v>
-      </c>
-      <c r="E3" t="s">
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="F27" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="F28" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="F29" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="F30" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="F31" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="F32" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="C33" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="F33" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="F34" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="B35" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="C35" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="F35" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="C36" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="F36" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="B37" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="C37" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="F37" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="B38" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="C38" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="D38" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E38" s="17" t="s">
+        <v>185</v>
+      </c>
+      <c r="F38" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="G3" s="20" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>133</v>
-      </c>
-      <c r="B4" t="s">
-        <v>81</v>
-      </c>
-      <c r="C4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" t="s">
-        <v>72</v>
-      </c>
-      <c r="E4" t="s">
-        <v>73</v>
-      </c>
-      <c r="G4" s="7"/>
-    </row>
-    <row r="5" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>134</v>
-      </c>
-      <c r="B5" t="s">
-        <v>81</v>
-      </c>
-      <c r="C5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" t="s">
-        <v>89</v>
-      </c>
-      <c r="E5" t="s">
-        <v>90</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="H5" t="s">
-        <v>17</v>
-      </c>
-      <c r="I5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>135</v>
-      </c>
-      <c r="B6" t="s">
-        <v>81</v>
-      </c>
-      <c r="C6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>136</v>
-      </c>
-      <c r="B7" t="s">
-        <v>81</v>
-      </c>
-      <c r="C7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" t="s">
-        <v>87</v>
-      </c>
-      <c r="E7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>137</v>
-      </c>
-      <c r="B8" t="s">
-        <v>81</v>
-      </c>
-      <c r="C8" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" t="s">
-        <v>88</v>
-      </c>
-      <c r="E8" t="s">
-        <v>24</v>
-      </c>
-      <c r="G8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>138</v>
-      </c>
-      <c r="B9" t="s">
-        <v>81</v>
-      </c>
-      <c r="C9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" t="s">
-        <v>26</v>
-      </c>
-      <c r="E9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>139</v>
-      </c>
-      <c r="B10" t="s">
-        <v>81</v>
-      </c>
-      <c r="C10" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" t="s">
-        <v>28</v>
-      </c>
-      <c r="E10" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>161</v>
-      </c>
-      <c r="B11" t="s">
-        <v>81</v>
-      </c>
-      <c r="C11" t="s">
-        <v>163</v>
-      </c>
-      <c r="D11" t="s">
-        <v>80</v>
-      </c>
-      <c r="E11" t="s">
-        <v>80</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>140</v>
-      </c>
-      <c r="B12" t="s">
-        <v>81</v>
-      </c>
-      <c r="C12" t="s">
-        <v>31</v>
-      </c>
-      <c r="D12" t="s">
-        <v>32</v>
-      </c>
-      <c r="E12" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>160</v>
-      </c>
-      <c r="B13" t="s">
-        <v>81</v>
-      </c>
-      <c r="C13" t="s">
-        <v>34</v>
-      </c>
-      <c r="D13" t="s">
-        <v>35</v>
-      </c>
-      <c r="E13" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>159</v>
-      </c>
-      <c r="B14" t="s">
-        <v>81</v>
-      </c>
-      <c r="C14" t="s">
-        <v>36</v>
-      </c>
-      <c r="D14" t="s">
-        <v>37</v>
-      </c>
-      <c r="E14" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>141</v>
-      </c>
-      <c r="B15" t="s">
-        <v>81</v>
-      </c>
-      <c r="C15" t="s">
-        <v>39</v>
-      </c>
-      <c r="D15" t="s">
-        <v>86</v>
-      </c>
-      <c r="E15" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>142</v>
-      </c>
-      <c r="B16" t="s">
-        <v>81</v>
-      </c>
-      <c r="C16" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>143</v>
-      </c>
-      <c r="B17" t="s">
-        <v>81</v>
-      </c>
-      <c r="C17" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>144</v>
-      </c>
-      <c r="B18" t="s">
-        <v>81</v>
-      </c>
-      <c r="C18" t="s">
-        <v>42</v>
-      </c>
-      <c r="D18" t="s">
-        <v>43</v>
-      </c>
-      <c r="E18" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>145</v>
-      </c>
-      <c r="B19" t="s">
-        <v>81</v>
-      </c>
-      <c r="C19" t="s">
-        <v>45</v>
-      </c>
-      <c r="D19" t="s">
-        <v>50</v>
-      </c>
-      <c r="E19" s="8" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>146</v>
-      </c>
-      <c r="B20" t="s">
-        <v>81</v>
-      </c>
-      <c r="C20" t="s">
-        <v>46</v>
-      </c>
-      <c r="D20" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>147</v>
-      </c>
-      <c r="B21" t="s">
-        <v>81</v>
-      </c>
-      <c r="C21" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>148</v>
-      </c>
-      <c r="B22" t="s">
-        <v>81</v>
-      </c>
-      <c r="C22" t="s">
-        <v>96</v>
-      </c>
-      <c r="D22" t="s">
-        <v>97</v>
-      </c>
-      <c r="E22" t="s">
-        <v>95</v>
-      </c>
-      <c r="F22" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>149</v>
-      </c>
-      <c r="B23" t="s">
-        <v>81</v>
-      </c>
-      <c r="C23" t="s">
-        <v>53</v>
-      </c>
-      <c r="D23" t="s">
-        <v>54</v>
-      </c>
-      <c r="E23" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>153</v>
-      </c>
-      <c r="B24" t="s">
-        <v>83</v>
-      </c>
-      <c r="C24" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>152</v>
-      </c>
-      <c r="B25" t="s">
-        <v>83</v>
-      </c>
-      <c r="C25" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>150</v>
-      </c>
-      <c r="B26" t="s">
-        <v>81</v>
-      </c>
-      <c r="D26" t="s">
-        <v>91</v>
-      </c>
-      <c r="E26" s="19" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>151</v>
-      </c>
-      <c r="B27" t="s">
-        <v>81</v>
-      </c>
-      <c r="D27" t="s">
-        <v>94</v>
-      </c>
-      <c r="E27" s="19" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>164</v>
-      </c>
-      <c r="B28" t="s">
-        <v>81</v>
-      </c>
-      <c r="C28" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>165</v>
-      </c>
-      <c r="B29" t="s">
-        <v>81</v>
-      </c>
-      <c r="C29" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>184</v>
-      </c>
-      <c r="B30" t="s">
-        <v>81</v>
-      </c>
-      <c r="C30" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>166</v>
-      </c>
-      <c r="B31" t="s">
-        <v>81</v>
-      </c>
-      <c r="C31" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="9" t="s">
         <v>180</v>
       </c>
-      <c r="B32" t="s">
-        <v>81</v>
-      </c>
-      <c r="C32" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>167</v>
-      </c>
-      <c r="B33" t="s">
-        <v>81</v>
-      </c>
-      <c r="C33" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>183</v>
-      </c>
-      <c r="B34" t="s">
-        <v>81</v>
-      </c>
-      <c r="C34" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+      <c r="B39" s="9" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="30" t="s">
         <v>181</v>
       </c>
-      <c r="B35" t="s">
-        <v>81</v>
-      </c>
-      <c r="C35" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>168</v>
-      </c>
-      <c r="B36" t="s">
-        <v>81</v>
-      </c>
-      <c r="C36" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+      <c r="B41" s="30"/>
+      <c r="C41" s="30"/>
+      <c r="D41" s="30"/>
+      <c r="E41" s="30"/>
+      <c r="F41" s="30"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="9" t="s">
         <v>182</v>
       </c>
-      <c r="B37" t="s">
-        <v>81</v>
-      </c>
-      <c r="C37" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>185</v>
-      </c>
-      <c r="B38" t="s">
-        <v>81</v>
-      </c>
-      <c r="C38" t="s">
-        <v>179</v>
-      </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A41:F41"/>
+  </mergeCells>
   <hyperlinks>
-    <hyperlink ref="G3" r:id="rId1" xr:uid="{4C5D2A58-BAD6-4882-B6AB-E4DFF86DDADD}"/>
+    <hyperlink ref="H3" r:id="rId1" xr:uid="{4C5D2A58-BAD6-4882-B6AB-E4DFF86DDADD}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId2"/>
@@ -1707,9 +1910,10 @@
   </sheetPr>
   <dimension ref="A1:P5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E3" sqref="E3"/>
+      <selection activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1721,201 +1925,201 @@
     <col min="5" max="5" width="20" style="6" customWidth="1"/>
     <col min="6" max="6" width="22.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="24.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.28515625" style="6" customWidth="1"/>
-    <col min="9" max="9" width="19.140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.85546875" customWidth="1"/>
-    <col min="11" max="11" width="14.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="29.85546875" customWidth="1"/>
-    <col min="14" max="14" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.85546875" customWidth="1"/>
+    <col min="10" max="10" width="14.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="29.85546875" customWidth="1"/>
+    <col min="13" max="13" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="21.28515625" style="6" customWidth="1"/>
     <col min="15" max="15" width="29.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="O1" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="P1" s="7" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" s="9" customFormat="1" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="I2" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="J2" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="K2" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="L2" s="17" t="s">
+        <v>175</v>
+      </c>
+      <c r="N2" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="O2" s="16"/>
+    </row>
+    <row r="3" spans="1:16" s="9" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="I3" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="J3" s="14">
         <v>2</v>
       </c>
-      <c r="H1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="O1" s="10" t="s">
+      <c r="K3" s="15"/>
+      <c r="L3" s="17" t="s">
+        <v>168</v>
+      </c>
+      <c r="N3" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="O3" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="P3" s="9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="13" t="s">
+        <v>169</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>167</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="F4" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="G4" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="H4" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="P1" s="9" t="s">
+      <c r="I4" s="13" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="2" spans="1:16" s="11" customFormat="1" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="C2" s="12" t="s">
-        <v>154</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>158</v>
-      </c>
-      <c r="E2" s="21" t="s">
-        <v>162</v>
-      </c>
-      <c r="F2" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="G2" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="H2" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="I2" s="12" t="s">
-        <v>155</v>
-      </c>
-      <c r="J2" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="K2" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="L2" s="17" t="s">
-        <v>131</v>
-      </c>
-      <c r="M2" s="21" t="s">
-        <v>156</v>
-      </c>
-      <c r="O2" s="18"/>
-    </row>
-    <row r="3" spans="1:16" s="11" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>154</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>158</v>
-      </c>
-      <c r="E3" s="21" t="s">
-        <v>162</v>
-      </c>
-      <c r="F3" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="G3" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="H3" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="I3" s="12" t="s">
-        <v>133</v>
-      </c>
-      <c r="J3" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="K3" s="16">
-        <v>2</v>
-      </c>
-      <c r="L3" s="17"/>
-      <c r="M3" s="21" t="s">
-        <v>157</v>
-      </c>
-      <c r="O3" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="P3" s="11" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" s="14" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" s="15" t="s">
-        <v>109</v>
-      </c>
-      <c r="B4" s="15" t="s">
-        <v>110</v>
-      </c>
-      <c r="C4" s="15" t="s">
-        <v>122</v>
-      </c>
-      <c r="D4" s="15" t="s">
-        <v>111</v>
-      </c>
-      <c r="E4" s="15" t="s">
-        <v>121</v>
-      </c>
-      <c r="F4" s="14" t="s">
+      <c r="J4" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="K4" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="L4" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="N4" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="O4" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="P4" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="G4" s="23" t="s">
-        <v>112</v>
-      </c>
-      <c r="H4" s="15" t="s">
-        <v>113</v>
-      </c>
-      <c r="I4" s="15" t="s">
-        <v>114</v>
-      </c>
-      <c r="J4" s="15" t="s">
-        <v>115</v>
-      </c>
-      <c r="K4" s="25" t="s">
-        <v>116</v>
-      </c>
-      <c r="L4" s="26" t="s">
-        <v>117</v>
-      </c>
-      <c r="M4" s="15" t="s">
-        <v>118</v>
-      </c>
-      <c r="O4" s="24" t="s">
-        <v>119</v>
-      </c>
-      <c r="P4" s="14" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" s="11" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:16" s="9" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
@@ -1923,15 +2127,15 @@
       <c r="E5" s="6"/>
       <c r="F5"/>
       <c r="G5"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="16"/>
-      <c r="L5" s="17"/>
-      <c r="O5" s="18"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="15"/>
+      <c r="N5" s="10"/>
+      <c r="O5" s="16"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="9" type="noConversion"/>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
 </worksheet>
@@ -1939,10 +2143,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68A67991-E07C-48E9-BCCB-465C8EC704B9}">
-  <dimension ref="A1:A16"/>
+  <dimension ref="A1:A12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1952,63 +2156,58 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>124</v>
+        <v>172</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>125</v>
+        <v>173</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="22" t="s">
-        <v>104</v>
+        <v>165</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="18" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>127</v>
+        <v>171</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>128</v>
+        <v>110</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="22" t="s">
-        <v>105</v>
+        <v>111</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="18" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="9" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>130</v>
+        <v>164</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>123</v>
+        <v>166</v>
       </c>
     </row>
   </sheetData>
